--- a/LubanConfig/Datas/OnlinePlayerConfig.xlsx
+++ b/LubanConfig/Datas/OnlinePlayerConfig.xlsx
@@ -1,46 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinyan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A199704D-AA5F-45CD-84E7-625853233324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>id</t>
   </si>
   <si>
     <t>clientId</t>
@@ -52,22 +33,25 @@
     <t>##</t>
   </si>
   <si>
-    <t>ReTimelimit</t>
+    <t>reTimelimit</t>
   </si>
   <si>
-    <t>ReTimeMax</t>
+    <t>reTimeMax</t>
   </si>
   <si>
     <t>limit</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>max</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>关联服务器游戏id</t>
@@ -223,8 +207,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,46 +224,156 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,18 +394,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -337,15 +599,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -353,37 +851,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -670,16 +1210,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="K444" sqref="K444"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -756,31 +1296,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>6710000</v>
       </c>
@@ -788,10 +1328,10 @@
         <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -806,7 +1346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>6710001</v>
       </c>
@@ -814,10 +1354,10 @@
         <v>71</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
       <c r="F5">
         <v>60</v>
@@ -832,7 +1372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>6710002</v>
       </c>
@@ -840,10 +1380,10 @@
         <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>60</v>
@@ -858,7 +1398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>6710003</v>
       </c>
@@ -866,10 +1406,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -884,7 +1424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>6710004</v>
       </c>
@@ -892,10 +1432,10 @@
         <v>71</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>60</v>
@@ -910,7 +1450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>6710005</v>
       </c>
@@ -918,10 +1458,10 @@
         <v>71</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -936,7 +1476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>6710006</v>
       </c>
@@ -944,10 +1484,10 @@
         <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>60</v>
@@ -962,7 +1502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>6710007</v>
       </c>
@@ -970,10 +1510,10 @@
         <v>71</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>60</v>
@@ -988,7 +1528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>6710008</v>
       </c>
@@ -996,10 +1536,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>60</v>
@@ -1014,7 +1554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="2:9">
       <c r="B13">
         <v>6710009</v>
       </c>
@@ -1022,10 +1562,10 @@
         <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>60</v>
@@ -1040,7 +1580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>6710010</v>
       </c>
@@ -1048,10 +1588,10 @@
         <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>60</v>
@@ -1066,7 +1606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="2:9">
       <c r="B15">
         <v>6710011</v>
       </c>
@@ -1074,10 +1614,10 @@
         <v>71</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>60</v>
@@ -1092,7 +1632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="2:9">
       <c r="B16">
         <v>6710012</v>
       </c>
@@ -1100,10 +1640,10 @@
         <v>71</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>60</v>
@@ -1126,10 +1666,10 @@
         <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>60</v>
@@ -1152,10 +1692,10 @@
         <v>71</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>60</v>
@@ -1178,10 +1718,10 @@
         <v>71</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>60</v>
@@ -1204,10 +1744,10 @@
         <v>71</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20">
         <v>60</v>
@@ -1230,10 +1770,10 @@
         <v>71</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1256,10 +1796,10 @@
         <v>71</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>60</v>
@@ -1282,10 +1822,10 @@
         <v>71</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>60</v>
@@ -1308,10 +1848,10 @@
         <v>71</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>60</v>
@@ -1334,10 +1874,10 @@
         <v>71</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25">
         <v>60</v>
@@ -1360,10 +1900,10 @@
         <v>71</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>60</v>
@@ -1386,10 +1926,10 @@
         <v>71</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27">
         <v>60</v>
@@ -1412,10 +1952,10 @@
         <v>62</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>60</v>
@@ -1438,10 +1978,10 @@
         <v>62</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>60</v>
@@ -1464,10 +2004,10 @@
         <v>62</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>60</v>
@@ -1490,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>60</v>
@@ -1516,10 +2056,10 @@
         <v>62</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>60</v>
@@ -1542,10 +2082,10 @@
         <v>62</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>60</v>
@@ -1568,10 +2108,10 @@
         <v>62</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>60</v>
@@ -1594,10 +2134,10 @@
         <v>62</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>60</v>
@@ -1620,10 +2160,10 @@
         <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <v>60</v>
@@ -1646,10 +2186,10 @@
         <v>62</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37">
         <v>60</v>
@@ -1672,10 +2212,10 @@
         <v>62</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38">
         <v>60</v>
@@ -1698,10 +2238,10 @@
         <v>62</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39">
         <v>60</v>
@@ -1724,10 +2264,10 @@
         <v>62</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40">
         <v>60</v>
@@ -1750,10 +2290,10 @@
         <v>62</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41">
         <v>60</v>
@@ -1776,10 +2316,10 @@
         <v>62</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42">
         <v>60</v>
@@ -1802,10 +2342,10 @@
         <v>62</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43">
         <v>60</v>
@@ -1828,10 +2368,10 @@
         <v>62</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44">
         <v>60</v>
@@ -1854,10 +2394,10 @@
         <v>62</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45">
         <v>60</v>
@@ -1880,10 +2420,10 @@
         <v>62</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>60</v>
@@ -1906,10 +2446,10 @@
         <v>62</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47">
         <v>60</v>
@@ -1932,10 +2472,10 @@
         <v>62</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48">
         <v>60</v>
@@ -1958,10 +2498,10 @@
         <v>62</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49">
         <v>60</v>
@@ -1984,10 +2524,10 @@
         <v>62</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50">
         <v>60</v>
@@ -2010,10 +2550,10 @@
         <v>62</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51">
         <v>60</v>
@@ -2036,10 +2576,10 @@
         <v>72</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52">
         <v>60</v>
@@ -2062,10 +2602,10 @@
         <v>72</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53">
         <v>60</v>
@@ -2088,10 +2628,10 @@
         <v>72</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54">
         <v>60</v>
@@ -2114,10 +2654,10 @@
         <v>72</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55">
         <v>60</v>
@@ -2140,10 +2680,10 @@
         <v>72</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56">
         <v>60</v>
@@ -2166,10 +2706,10 @@
         <v>72</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57">
         <v>60</v>
@@ -2192,10 +2732,10 @@
         <v>72</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58">
         <v>60</v>
@@ -2218,10 +2758,10 @@
         <v>72</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59">
         <v>60</v>
@@ -2244,10 +2784,10 @@
         <v>72</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60">
         <v>60</v>
@@ -2270,10 +2810,10 @@
         <v>72</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -2296,10 +2836,10 @@
         <v>72</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62">
         <v>60</v>
@@ -2322,10 +2862,10 @@
         <v>72</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63">
         <v>60</v>
@@ -2348,10 +2888,10 @@
         <v>72</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64">
         <v>60</v>
@@ -2374,10 +2914,10 @@
         <v>72</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65">
         <v>60</v>
@@ -2400,10 +2940,10 @@
         <v>72</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66">
         <v>60</v>
@@ -2426,10 +2966,10 @@
         <v>72</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -2452,10 +2992,10 @@
         <v>72</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -2478,10 +3018,10 @@
         <v>72</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69">
         <v>60</v>
@@ -2504,10 +3044,10 @@
         <v>72</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70">
         <v>60</v>
@@ -2530,10 +3070,10 @@
         <v>72</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71">
         <v>60</v>
@@ -2556,10 +3096,10 @@
         <v>72</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -2582,10 +3122,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -2608,10 +3148,10 @@
         <v>72</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74">
         <v>60</v>
@@ -2634,10 +3174,10 @@
         <v>72</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75">
         <v>60</v>
@@ -2660,10 +3200,10 @@
         <v>69</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76">
         <v>60</v>
@@ -2686,10 +3226,10 @@
         <v>69</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77">
         <v>60</v>
@@ -2712,10 +3252,10 @@
         <v>69</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78">
         <v>60</v>
@@ -2738,10 +3278,10 @@
         <v>69</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -2764,10 +3304,10 @@
         <v>69</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -2790,10 +3330,10 @@
         <v>69</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -2816,10 +3356,10 @@
         <v>69</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -2842,10 +3382,10 @@
         <v>69</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -2868,10 +3408,10 @@
         <v>69</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -2894,10 +3434,10 @@
         <v>69</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -2920,10 +3460,10 @@
         <v>69</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86">
         <v>60</v>
@@ -2946,10 +3486,10 @@
         <v>69</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -2972,10 +3512,10 @@
         <v>69</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88">
         <v>60</v>
@@ -2987,7 +3527,7 @@
         <v>300</v>
       </c>
       <c r="I88">
-        <v>825.00000000000011</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -2998,10 +3538,10 @@
         <v>69</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89">
         <v>60</v>
@@ -3024,10 +3564,10 @@
         <v>69</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -3050,10 +3590,10 @@
         <v>69</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -3076,10 +3616,10 @@
         <v>69</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -3102,10 +3642,10 @@
         <v>69</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F93">
         <v>60</v>
@@ -3114,7 +3654,7 @@
         <v>300</v>
       </c>
       <c r="H93">
-        <v>825.00000000000011</v>
+        <v>825</v>
       </c>
       <c r="I93">
         <v>1200</v>
@@ -3128,10 +3668,10 @@
         <v>69</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -3154,10 +3694,10 @@
         <v>69</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F95">
         <v>60</v>
@@ -3180,10 +3720,10 @@
         <v>69</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F96">
         <v>60</v>
@@ -3206,10 +3746,10 @@
         <v>69</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F97">
         <v>60</v>
@@ -3232,10 +3772,10 @@
         <v>69</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F98">
         <v>60</v>
@@ -3258,10 +3798,10 @@
         <v>69</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F99">
         <v>60</v>
@@ -3284,10 +3824,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100">
         <v>60</v>
@@ -3310,10 +3850,10 @@
         <v>70</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101">
         <v>60</v>
@@ -3336,10 +3876,10 @@
         <v>70</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102">
         <v>60</v>
@@ -3362,10 +3902,10 @@
         <v>70</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103">
         <v>60</v>
@@ -3388,10 +3928,10 @@
         <v>70</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F104">
         <v>60</v>
@@ -3414,10 +3954,10 @@
         <v>70</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F105">
         <v>60</v>
@@ -3440,10 +3980,10 @@
         <v>70</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106">
         <v>60</v>
@@ -3466,10 +4006,10 @@
         <v>70</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107">
         <v>60</v>
@@ -3492,10 +4032,10 @@
         <v>70</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F108">
         <v>60</v>
@@ -3518,10 +4058,10 @@
         <v>70</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F109">
         <v>60</v>
@@ -3544,10 +4084,10 @@
         <v>70</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F110">
         <v>60</v>
@@ -3570,10 +4110,10 @@
         <v>70</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F111">
         <v>60</v>
@@ -3596,10 +4136,10 @@
         <v>70</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F112">
         <v>60</v>
@@ -3611,7 +4151,7 @@
         <v>300</v>
       </c>
       <c r="I112">
-        <v>825.00000000000011</v>
+        <v>825</v>
       </c>
     </row>
     <row r="113" spans="2:9">
@@ -3622,10 +4162,10 @@
         <v>70</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F113">
         <v>60</v>
@@ -3648,10 +4188,10 @@
         <v>70</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F114">
         <v>60</v>
@@ -3674,10 +4214,10 @@
         <v>70</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115">
         <v>60</v>
@@ -3700,10 +4240,10 @@
         <v>70</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F116">
         <v>60</v>
@@ -3726,10 +4266,10 @@
         <v>70</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F117">
         <v>60</v>
@@ -3738,7 +4278,7 @@
         <v>300</v>
       </c>
       <c r="H117">
-        <v>825.00000000000011</v>
+        <v>825</v>
       </c>
       <c r="I117">
         <v>1200</v>
@@ -3752,10 +4292,10 @@
         <v>70</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118">
         <v>60</v>
@@ -3778,10 +4318,10 @@
         <v>70</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F119">
         <v>60</v>
@@ -3804,10 +4344,10 @@
         <v>70</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F120">
         <v>60</v>
@@ -3830,10 +4370,10 @@
         <v>70</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F121">
         <v>60</v>
@@ -3856,10 +4396,10 @@
         <v>70</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F122">
         <v>60</v>
@@ -3882,10 +4422,10 @@
         <v>70</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F123">
         <v>60</v>
@@ -3908,10 +4448,10 @@
         <v>66</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F124">
         <v>60</v>
@@ -3934,10 +4474,10 @@
         <v>66</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F125">
         <v>60</v>
@@ -3960,10 +4500,10 @@
         <v>66</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F126">
         <v>60</v>
@@ -3986,10 +4526,10 @@
         <v>66</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127">
         <v>60</v>
@@ -4012,10 +4552,10 @@
         <v>66</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F128">
         <v>60</v>
@@ -4038,10 +4578,10 @@
         <v>66</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F129">
         <v>60</v>
@@ -4064,10 +4604,10 @@
         <v>66</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F130">
         <v>60</v>
@@ -4090,10 +4630,10 @@
         <v>66</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F131">
         <v>60</v>
@@ -4116,10 +4656,10 @@
         <v>66</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F132">
         <v>60</v>
@@ -4142,10 +4682,10 @@
         <v>66</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F133">
         <v>60</v>
@@ -4168,10 +4708,10 @@
         <v>66</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134">
         <v>60</v>
@@ -4194,10 +4734,10 @@
         <v>66</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F135">
         <v>60</v>
@@ -4220,10 +4760,10 @@
         <v>66</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F136">
         <v>60</v>
@@ -4235,7 +4775,7 @@
         <v>300</v>
       </c>
       <c r="I136">
-        <v>825.00000000000011</v>
+        <v>825</v>
       </c>
     </row>
     <row r="137" spans="2:9">
@@ -4246,10 +4786,10 @@
         <v>66</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F137">
         <v>60</v>
@@ -4272,10 +4812,10 @@
         <v>66</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F138">
         <v>60</v>
@@ -4298,10 +4838,10 @@
         <v>66</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F139">
         <v>60</v>
@@ -4324,10 +4864,10 @@
         <v>66</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F140">
         <v>60</v>
@@ -4350,10 +4890,10 @@
         <v>66</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F141">
         <v>60</v>
@@ -4362,7 +4902,7 @@
         <v>300</v>
       </c>
       <c r="H141">
-        <v>825.00000000000011</v>
+        <v>825</v>
       </c>
       <c r="I141">
         <v>1200</v>
@@ -4376,10 +4916,10 @@
         <v>66</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F142">
         <v>60</v>
@@ -4402,10 +4942,10 @@
         <v>66</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F143">
         <v>60</v>
@@ -4428,10 +4968,10 @@
         <v>66</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F144">
         <v>60</v>
@@ -4454,10 +4994,10 @@
         <v>66</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F145">
         <v>60</v>
@@ -4480,10 +5020,10 @@
         <v>66</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F146">
         <v>60</v>
@@ -4506,10 +5046,10 @@
         <v>66</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F147">
         <v>60</v>
@@ -4532,10 +5072,10 @@
         <v>65</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F148">
         <v>60</v>
@@ -4558,10 +5098,10 @@
         <v>65</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F149">
         <v>60</v>
@@ -4584,10 +5124,10 @@
         <v>65</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F150">
         <v>60</v>
@@ -4610,10 +5150,10 @@
         <v>65</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F151">
         <v>60</v>
@@ -4636,10 +5176,10 @@
         <v>65</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F152">
         <v>60</v>
@@ -4662,10 +5202,10 @@
         <v>65</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F153">
         <v>60</v>
@@ -4688,10 +5228,10 @@
         <v>65</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F154">
         <v>60</v>
@@ -4714,10 +5254,10 @@
         <v>65</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F155">
         <v>60</v>
@@ -4740,10 +5280,10 @@
         <v>65</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156">
         <v>60</v>
@@ -4766,10 +5306,10 @@
         <v>65</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F157">
         <v>60</v>
@@ -4792,10 +5332,10 @@
         <v>65</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F158">
         <v>60</v>
@@ -4818,10 +5358,10 @@
         <v>65</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F159">
         <v>60</v>
@@ -4844,10 +5384,10 @@
         <v>65</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F160">
         <v>60</v>
@@ -4870,10 +5410,10 @@
         <v>65</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F161">
         <v>60</v>
@@ -4896,10 +5436,10 @@
         <v>65</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F162">
         <v>60</v>
@@ -4922,10 +5462,10 @@
         <v>65</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F163">
         <v>60</v>
@@ -4948,10 +5488,10 @@
         <v>65</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F164">
         <v>60</v>
@@ -4974,10 +5514,10 @@
         <v>65</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F165">
         <v>60</v>
@@ -5000,10 +5540,10 @@
         <v>65</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F166">
         <v>60</v>
@@ -5026,10 +5566,10 @@
         <v>65</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F167">
         <v>60</v>
@@ -5052,10 +5592,10 @@
         <v>65</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F168">
         <v>60</v>
@@ -5078,10 +5618,10 @@
         <v>65</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F169">
         <v>60</v>
@@ -5104,10 +5644,10 @@
         <v>65</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F170">
         <v>60</v>
@@ -5130,10 +5670,10 @@
         <v>65</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F171">
         <v>60</v>
@@ -5156,10 +5696,10 @@
         <v>39</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F172">
         <v>60</v>
@@ -5182,10 +5722,10 @@
         <v>39</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F173">
         <v>60</v>
@@ -5208,10 +5748,10 @@
         <v>39</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F174">
         <v>60</v>
@@ -5234,10 +5774,10 @@
         <v>39</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F175">
         <v>60</v>
@@ -5260,10 +5800,10 @@
         <v>39</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F176">
         <v>60</v>
@@ -5286,10 +5826,10 @@
         <v>39</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F177">
         <v>60</v>
@@ -5312,10 +5852,10 @@
         <v>39</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F178">
         <v>60</v>
@@ -5338,10 +5878,10 @@
         <v>39</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F179">
         <v>60</v>
@@ -5364,10 +5904,10 @@
         <v>39</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F180">
         <v>60</v>
@@ -5390,10 +5930,10 @@
         <v>39</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F181">
         <v>60</v>
@@ -5416,10 +5956,10 @@
         <v>39</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F182">
         <v>60</v>
@@ -5442,10 +5982,10 @@
         <v>39</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F183">
         <v>60</v>
@@ -5468,10 +6008,10 @@
         <v>39</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F184">
         <v>60</v>
@@ -5494,10 +6034,10 @@
         <v>39</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F185">
         <v>60</v>
@@ -5520,10 +6060,10 @@
         <v>39</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F186">
         <v>60</v>
@@ -5546,10 +6086,10 @@
         <v>39</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F187">
         <v>60</v>
@@ -5572,10 +6112,10 @@
         <v>39</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F188">
         <v>60</v>
@@ -5598,10 +6138,10 @@
         <v>39</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F189">
         <v>60</v>
@@ -5624,10 +6164,10 @@
         <v>39</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F190">
         <v>60</v>
@@ -5650,10 +6190,10 @@
         <v>39</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F191">
         <v>60</v>
@@ -5676,10 +6216,10 @@
         <v>39</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F192">
         <v>60</v>
@@ -5702,10 +6242,10 @@
         <v>39</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F193">
         <v>60</v>
@@ -5728,10 +6268,10 @@
         <v>39</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F194">
         <v>60</v>
@@ -5754,10 +6294,10 @@
         <v>39</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E195" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F195">
         <v>60</v>
@@ -5780,10 +6320,10 @@
         <v>22</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F196">
         <v>60</v>
@@ -5806,10 +6346,10 @@
         <v>22</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F197">
         <v>60</v>
@@ -5832,10 +6372,10 @@
         <v>22</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F198">
         <v>60</v>
@@ -5858,10 +6398,10 @@
         <v>22</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F199">
         <v>60</v>
@@ -5884,10 +6424,10 @@
         <v>22</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F200">
         <v>60</v>
@@ -5910,10 +6450,10 @@
         <v>22</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F201">
         <v>60</v>
@@ -5936,10 +6476,10 @@
         <v>22</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F202">
         <v>60</v>
@@ -5962,10 +6502,10 @@
         <v>22</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F203">
         <v>60</v>
@@ -5988,10 +6528,10 @@
         <v>22</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F204">
         <v>60</v>
@@ -6014,10 +6554,10 @@
         <v>22</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F205">
         <v>60</v>
@@ -6040,10 +6580,10 @@
         <v>22</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F206">
         <v>60</v>
@@ -6066,10 +6606,10 @@
         <v>22</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F207">
         <v>60</v>
@@ -6092,10 +6632,10 @@
         <v>22</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F208">
         <v>60</v>
@@ -6118,10 +6658,10 @@
         <v>22</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F209">
         <v>60</v>
@@ -6144,10 +6684,10 @@
         <v>22</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F210">
         <v>60</v>
@@ -6170,10 +6710,10 @@
         <v>22</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F211">
         <v>60</v>
@@ -6196,10 +6736,10 @@
         <v>22</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F212">
         <v>60</v>
@@ -6222,10 +6762,10 @@
         <v>22</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F213">
         <v>60</v>
@@ -6248,10 +6788,10 @@
         <v>22</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F214">
         <v>60</v>
@@ -6274,10 +6814,10 @@
         <v>22</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F215">
         <v>60</v>
@@ -6300,10 +6840,10 @@
         <v>22</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F216">
         <v>60</v>
@@ -6326,10 +6866,10 @@
         <v>22</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F217">
         <v>60</v>
@@ -6352,10 +6892,10 @@
         <v>22</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F218">
         <v>60</v>
@@ -6378,10 +6918,10 @@
         <v>22</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F219">
         <v>60</v>
@@ -6404,10 +6944,10 @@
         <v>57</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F220">
         <v>60</v>
@@ -6430,10 +6970,10 @@
         <v>57</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E221" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F221">
         <v>60</v>
@@ -6456,10 +6996,10 @@
         <v>57</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E222" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F222">
         <v>60</v>
@@ -6482,10 +7022,10 @@
         <v>57</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E223" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F223">
         <v>60</v>
@@ -6508,10 +7048,10 @@
         <v>57</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F224">
         <v>60</v>
@@ -6534,10 +7074,10 @@
         <v>57</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F225">
         <v>60</v>
@@ -6560,10 +7100,10 @@
         <v>57</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F226">
         <v>60</v>
@@ -6586,10 +7126,10 @@
         <v>57</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F227">
         <v>60</v>
@@ -6612,10 +7152,10 @@
         <v>57</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F228">
         <v>60</v>
@@ -6638,10 +7178,10 @@
         <v>57</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F229">
         <v>60</v>
@@ -6664,10 +7204,10 @@
         <v>57</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E230" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F230">
         <v>60</v>
@@ -6690,10 +7230,10 @@
         <v>57</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E231" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F231">
         <v>60</v>
@@ -6716,10 +7256,10 @@
         <v>57</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F232">
         <v>60</v>
@@ -6742,10 +7282,10 @@
         <v>57</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F233">
         <v>60</v>
@@ -6768,10 +7308,10 @@
         <v>57</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E234" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F234">
         <v>60</v>
@@ -6794,10 +7334,10 @@
         <v>57</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F235">
         <v>60</v>
@@ -6820,10 +7360,10 @@
         <v>57</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E236" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F236">
         <v>60</v>
@@ -6846,10 +7386,10 @@
         <v>57</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E237" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F237">
         <v>60</v>
@@ -6872,10 +7412,10 @@
         <v>57</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F238">
         <v>60</v>
@@ -6898,10 +7438,10 @@
         <v>57</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E239" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F239">
         <v>60</v>
@@ -6924,10 +7464,10 @@
         <v>57</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F240">
         <v>60</v>
@@ -6950,10 +7490,10 @@
         <v>57</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E241" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F241">
         <v>60</v>
@@ -6976,10 +7516,10 @@
         <v>57</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E242" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F242">
         <v>60</v>
@@ -7002,10 +7542,10 @@
         <v>57</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E243" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F243">
         <v>60</v>
@@ -7028,10 +7568,10 @@
         <v>76</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F244">
         <v>60</v>
@@ -7054,10 +7594,10 @@
         <v>76</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F245">
         <v>60</v>
@@ -7080,10 +7620,10 @@
         <v>76</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E246" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F246">
         <v>60</v>
@@ -7106,10 +7646,10 @@
         <v>76</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E247" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F247">
         <v>60</v>
@@ -7132,10 +7672,10 @@
         <v>76</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F248">
         <v>60</v>
@@ -7158,10 +7698,10 @@
         <v>76</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E249" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F249">
         <v>60</v>
@@ -7184,10 +7724,10 @@
         <v>76</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F250">
         <v>60</v>
@@ -7210,10 +7750,10 @@
         <v>76</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F251">
         <v>60</v>
@@ -7236,10 +7776,10 @@
         <v>76</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F252">
         <v>60</v>
@@ -7262,10 +7802,10 @@
         <v>76</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F253">
         <v>60</v>
@@ -7288,10 +7828,10 @@
         <v>76</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E254" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F254">
         <v>60</v>
@@ -7314,10 +7854,10 @@
         <v>76</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F255">
         <v>60</v>
@@ -7340,10 +7880,10 @@
         <v>76</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E256" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F256">
         <v>60</v>
@@ -7366,10 +7906,10 @@
         <v>76</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E257" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F257">
         <v>60</v>
@@ -7392,10 +7932,10 @@
         <v>76</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E258" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F258">
         <v>60</v>
@@ -7418,10 +7958,10 @@
         <v>76</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E259" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F259">
         <v>60</v>
@@ -7444,10 +7984,10 @@
         <v>76</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F260">
         <v>60</v>
@@ -7470,10 +8010,10 @@
         <v>76</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E261" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F261">
         <v>60</v>
@@ -7496,10 +8036,10 @@
         <v>76</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E262" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F262">
         <v>60</v>
@@ -7522,10 +8062,10 @@
         <v>76</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F263">
         <v>60</v>
@@ -7548,10 +8088,10 @@
         <v>76</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F264">
         <v>60</v>
@@ -7574,10 +8114,10 @@
         <v>76</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F265">
         <v>60</v>
@@ -7600,10 +8140,10 @@
         <v>76</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E266" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F266">
         <v>60</v>
@@ -7626,10 +8166,10 @@
         <v>76</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F267">
         <v>60</v>
@@ -7652,10 +8192,10 @@
         <v>44</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E268" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F268">
         <v>60</v>
@@ -7678,10 +8218,10 @@
         <v>44</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F269">
         <v>60</v>
@@ -7704,10 +8244,10 @@
         <v>44</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F270">
         <v>60</v>
@@ -7730,10 +8270,10 @@
         <v>44</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E271" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F271">
         <v>60</v>
@@ -7756,10 +8296,10 @@
         <v>44</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F272">
         <v>60</v>
@@ -7782,10 +8322,10 @@
         <v>44</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F273">
         <v>60</v>
@@ -7808,10 +8348,10 @@
         <v>44</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F274">
         <v>60</v>
@@ -7834,10 +8374,10 @@
         <v>44</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E275" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F275">
         <v>60</v>
@@ -7860,10 +8400,10 @@
         <v>44</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E276" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F276">
         <v>60</v>
@@ -7886,10 +8426,10 @@
         <v>44</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E277" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F277">
         <v>60</v>
@@ -7912,10 +8452,10 @@
         <v>44</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E278" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F278">
         <v>60</v>
@@ -7938,10 +8478,10 @@
         <v>44</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E279" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F279">
         <v>60</v>
@@ -7964,10 +8504,10 @@
         <v>44</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E280" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F280">
         <v>60</v>
@@ -7990,10 +8530,10 @@
         <v>44</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E281" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F281">
         <v>60</v>
@@ -8016,10 +8556,10 @@
         <v>44</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E282" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F282">
         <v>60</v>
@@ -8042,10 +8582,10 @@
         <v>44</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E283" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F283">
         <v>60</v>
@@ -8068,10 +8608,10 @@
         <v>44</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E284" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F284">
         <v>60</v>
@@ -8094,10 +8634,10 @@
         <v>44</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E285" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F285">
         <v>60</v>
@@ -8120,10 +8660,10 @@
         <v>44</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E286" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F286">
         <v>60</v>
@@ -8146,10 +8686,10 @@
         <v>44</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E287" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F287">
         <v>60</v>
@@ -8172,10 +8712,10 @@
         <v>44</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F288">
         <v>60</v>
@@ -8198,10 +8738,10 @@
         <v>44</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F289">
         <v>60</v>
@@ -8224,10 +8764,10 @@
         <v>44</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E290" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F290">
         <v>60</v>
@@ -8250,10 +8790,10 @@
         <v>44</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E291" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F291">
         <v>60</v>
@@ -8276,10 +8816,10 @@
         <v>40</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F292">
         <v>60</v>
@@ -8302,10 +8842,10 @@
         <v>40</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E293" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F293">
         <v>60</v>
@@ -8328,10 +8868,10 @@
         <v>40</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E294" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F294">
         <v>60</v>
@@ -8354,10 +8894,10 @@
         <v>40</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E295" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F295">
         <v>60</v>
@@ -8380,10 +8920,10 @@
         <v>40</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E296" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F296">
         <v>60</v>
@@ -8406,10 +8946,10 @@
         <v>40</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E297" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F297">
         <v>60</v>
@@ -8432,10 +8972,10 @@
         <v>40</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E298" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F298">
         <v>60</v>
@@ -8458,10 +8998,10 @@
         <v>40</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E299" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F299">
         <v>60</v>
@@ -8484,10 +9024,10 @@
         <v>40</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E300" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F300">
         <v>60</v>
@@ -8510,10 +9050,10 @@
         <v>40</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E301" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F301">
         <v>60</v>
@@ -8536,10 +9076,10 @@
         <v>40</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E302" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F302">
         <v>60</v>
@@ -8562,10 +9102,10 @@
         <v>40</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E303" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F303">
         <v>60</v>
@@ -8588,10 +9128,10 @@
         <v>40</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E304" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F304">
         <v>60</v>
@@ -8614,10 +9154,10 @@
         <v>40</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E305" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F305">
         <v>60</v>
@@ -8640,10 +9180,10 @@
         <v>40</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E306" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F306">
         <v>60</v>
@@ -8666,10 +9206,10 @@
         <v>40</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E307" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F307">
         <v>60</v>
@@ -8692,10 +9232,10 @@
         <v>40</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E308" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F308">
         <v>60</v>
@@ -8718,10 +9258,10 @@
         <v>40</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E309" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F309">
         <v>60</v>
@@ -8744,10 +9284,10 @@
         <v>40</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E310" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F310">
         <v>60</v>
@@ -8770,10 +9310,10 @@
         <v>40</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E311" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F311">
         <v>60</v>
@@ -8796,10 +9336,10 @@
         <v>40</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E312" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F312">
         <v>60</v>
@@ -8822,10 +9362,10 @@
         <v>40</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E313" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F313">
         <v>60</v>
@@ -8848,10 +9388,10 @@
         <v>40</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E314" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F314">
         <v>60</v>
@@ -8874,10 +9414,10 @@
         <v>40</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E315" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F315">
         <v>60</v>
@@ -8900,10 +9440,10 @@
         <v>61</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E316" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F316">
         <v>60</v>
@@ -8926,10 +9466,10 @@
         <v>61</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E317" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F317">
         <v>60</v>
@@ -8952,10 +9492,10 @@
         <v>61</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E318" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F318">
         <v>60</v>
@@ -8978,10 +9518,10 @@
         <v>61</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E319" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F319">
         <v>60</v>
@@ -9004,10 +9544,10 @@
         <v>61</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E320" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F320">
         <v>60</v>
@@ -9030,10 +9570,10 @@
         <v>61</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E321" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F321">
         <v>60</v>
@@ -9056,10 +9596,10 @@
         <v>61</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E322" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F322">
         <v>60</v>
@@ -9082,10 +9622,10 @@
         <v>61</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E323" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F323">
         <v>60</v>
@@ -9108,10 +9648,10 @@
         <v>61</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E324" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F324">
         <v>60</v>
@@ -9134,10 +9674,10 @@
         <v>61</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E325" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F325">
         <v>60</v>
@@ -9160,10 +9700,10 @@
         <v>61</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E326" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F326">
         <v>60</v>
@@ -9186,10 +9726,10 @@
         <v>61</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E327" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F327">
         <v>60</v>
@@ -9212,10 +9752,10 @@
         <v>61</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E328" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F328">
         <v>60</v>
@@ -9238,10 +9778,10 @@
         <v>61</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E329" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F329">
         <v>60</v>
@@ -9264,10 +9804,10 @@
         <v>61</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E330" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F330">
         <v>60</v>
@@ -9290,10 +9830,10 @@
         <v>61</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E331" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F331">
         <v>60</v>
@@ -9316,10 +9856,10 @@
         <v>61</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E332" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F332">
         <v>60</v>
@@ -9342,10 +9882,10 @@
         <v>61</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E333" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F333">
         <v>60</v>
@@ -9368,10 +9908,10 @@
         <v>61</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E334" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F334">
         <v>60</v>
@@ -9394,10 +9934,10 @@
         <v>61</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E335" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F335">
         <v>60</v>
@@ -9420,10 +9960,10 @@
         <v>61</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E336" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F336">
         <v>60</v>
@@ -9446,10 +9986,10 @@
         <v>61</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E337" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F337">
         <v>60</v>
@@ -9472,10 +10012,10 @@
         <v>61</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E338" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F338">
         <v>60</v>
@@ -9498,10 +10038,10 @@
         <v>61</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E339" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F339">
         <v>60</v>
@@ -9524,10 +10064,10 @@
         <v>21</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E340" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F340">
         <v>60</v>
@@ -9550,10 +10090,10 @@
         <v>21</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E341" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F341">
         <v>60</v>
@@ -9576,10 +10116,10 @@
         <v>21</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E342" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F342">
         <v>60</v>
@@ -9602,10 +10142,10 @@
         <v>21</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E343" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F343">
         <v>60</v>
@@ -9628,10 +10168,10 @@
         <v>21</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E344" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F344">
         <v>60</v>
@@ -9654,10 +10194,10 @@
         <v>21</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E345" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F345">
         <v>60</v>
@@ -9680,10 +10220,10 @@
         <v>21</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E346" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F346">
         <v>60</v>
@@ -9706,10 +10246,10 @@
         <v>21</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E347" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F347">
         <v>60</v>
@@ -9732,10 +10272,10 @@
         <v>21</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E348" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F348">
         <v>60</v>
@@ -9758,10 +10298,10 @@
         <v>21</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E349" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F349">
         <v>60</v>
@@ -9784,10 +10324,10 @@
         <v>21</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E350" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F350">
         <v>60</v>
@@ -9810,10 +10350,10 @@
         <v>21</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E351" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F351">
         <v>60</v>
@@ -9836,10 +10376,10 @@
         <v>21</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E352" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F352">
         <v>60</v>
@@ -9862,10 +10402,10 @@
         <v>21</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E353" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F353">
         <v>60</v>
@@ -9888,10 +10428,10 @@
         <v>21</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E354" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F354">
         <v>60</v>
@@ -9914,10 +10454,10 @@
         <v>21</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E355" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F355">
         <v>60</v>
@@ -9940,10 +10480,10 @@
         <v>21</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E356" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F356">
         <v>60</v>
@@ -9966,10 +10506,10 @@
         <v>21</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E357" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F357">
         <v>60</v>
@@ -9992,10 +10532,10 @@
         <v>21</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E358" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F358">
         <v>60</v>
@@ -10018,10 +10558,10 @@
         <v>21</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E359" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F359">
         <v>60</v>
@@ -10044,10 +10584,10 @@
         <v>21</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E360" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F360">
         <v>60</v>
@@ -10070,10 +10610,10 @@
         <v>21</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E361" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F361">
         <v>60</v>
@@ -10096,10 +10636,10 @@
         <v>21</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E362" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F362">
         <v>60</v>
@@ -10122,10 +10662,10 @@
         <v>21</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E363" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F363">
         <v>60</v>
@@ -10148,10 +10688,10 @@
         <v>54</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E364" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F364">
         <v>60</v>
@@ -10174,10 +10714,10 @@
         <v>54</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E365" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F365">
         <v>60</v>
@@ -10200,10 +10740,10 @@
         <v>54</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E366" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F366">
         <v>60</v>
@@ -10226,10 +10766,10 @@
         <v>54</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E367" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F367">
         <v>60</v>
@@ -10252,10 +10792,10 @@
         <v>54</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E368" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F368">
         <v>60</v>
@@ -10278,10 +10818,10 @@
         <v>54</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E369" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F369">
         <v>60</v>
@@ -10304,10 +10844,10 @@
         <v>54</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E370" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F370">
         <v>60</v>
@@ -10330,10 +10870,10 @@
         <v>54</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E371" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F371">
         <v>60</v>
@@ -10356,10 +10896,10 @@
         <v>54</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E372" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F372">
         <v>60</v>
@@ -10382,10 +10922,10 @@
         <v>54</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E373" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F373">
         <v>60</v>
@@ -10408,10 +10948,10 @@
         <v>54</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E374" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F374">
         <v>60</v>
@@ -10434,10 +10974,10 @@
         <v>54</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E375" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F375">
         <v>60</v>
@@ -10460,10 +11000,10 @@
         <v>54</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E376" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F376">
         <v>60</v>
@@ -10486,10 +11026,10 @@
         <v>54</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E377" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F377">
         <v>60</v>
@@ -10512,10 +11052,10 @@
         <v>54</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E378" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F378">
         <v>60</v>
@@ -10538,10 +11078,10 @@
         <v>54</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E379" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F379">
         <v>60</v>
@@ -10564,10 +11104,10 @@
         <v>54</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E380" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F380">
         <v>60</v>
@@ -10590,10 +11130,10 @@
         <v>54</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E381" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F381">
         <v>60</v>
@@ -10616,10 +11156,10 @@
         <v>54</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E382" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F382">
         <v>60</v>
@@ -10642,10 +11182,10 @@
         <v>54</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E383" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F383">
         <v>60</v>
@@ -10668,10 +11208,10 @@
         <v>54</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E384" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F384">
         <v>60</v>
@@ -10694,10 +11234,10 @@
         <v>54</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E385" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F385">
         <v>60</v>
@@ -10720,10 +11260,10 @@
         <v>54</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E386" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F386">
         <v>60</v>
@@ -10746,10 +11286,10 @@
         <v>54</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E387" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F387">
         <v>60</v>
@@ -10772,10 +11312,10 @@
         <v>75</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E388" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F388">
         <v>60</v>
@@ -10798,10 +11338,10 @@
         <v>75</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E389" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F389">
         <v>60</v>
@@ -10824,10 +11364,10 @@
         <v>75</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E390" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F390">
         <v>60</v>
@@ -10850,10 +11390,10 @@
         <v>75</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E391" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F391">
         <v>60</v>
@@ -10876,10 +11416,10 @@
         <v>75</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E392" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F392">
         <v>60</v>
@@ -10902,10 +11442,10 @@
         <v>75</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E393" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F393">
         <v>60</v>
@@ -10928,10 +11468,10 @@
         <v>75</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F394">
         <v>60</v>
@@ -10954,10 +11494,10 @@
         <v>75</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E395" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F395">
         <v>60</v>
@@ -10980,10 +11520,10 @@
         <v>75</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E396" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F396">
         <v>60</v>
@@ -11006,10 +11546,10 @@
         <v>75</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E397" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F397">
         <v>60</v>
@@ -11032,10 +11572,10 @@
         <v>75</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E398" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F398">
         <v>60</v>
@@ -11058,10 +11598,10 @@
         <v>75</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E399" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F399">
         <v>60</v>
@@ -11084,10 +11624,10 @@
         <v>75</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E400" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F400">
         <v>60</v>
@@ -11110,10 +11650,10 @@
         <v>75</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E401" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F401">
         <v>60</v>
@@ -11136,10 +11676,10 @@
         <v>75</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E402" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F402">
         <v>60</v>
@@ -11162,10 +11702,10 @@
         <v>75</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E403" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F403">
         <v>60</v>
@@ -11188,10 +11728,10 @@
         <v>75</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E404" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F404">
         <v>60</v>
@@ -11214,10 +11754,10 @@
         <v>75</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E405" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F405">
         <v>60</v>
@@ -11240,10 +11780,10 @@
         <v>75</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E406" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F406">
         <v>60</v>
@@ -11266,10 +11806,10 @@
         <v>75</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E407" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F407">
         <v>60</v>
@@ -11292,10 +11832,10 @@
         <v>75</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E408" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F408">
         <v>60</v>
@@ -11318,10 +11858,10 @@
         <v>75</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E409" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F409">
         <v>60</v>
@@ -11344,10 +11884,10 @@
         <v>75</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E410" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F410">
         <v>60</v>
@@ -11370,10 +11910,10 @@
         <v>75</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E411" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F411">
         <v>60</v>
@@ -11396,10 +11936,10 @@
         <v>73</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E412" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F412">
         <v>60</v>
@@ -11422,10 +11962,10 @@
         <v>73</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E413" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F413">
         <v>60</v>
@@ -11448,10 +11988,10 @@
         <v>73</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E414" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F414">
         <v>60</v>
@@ -11474,10 +12014,10 @@
         <v>73</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E415" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F415">
         <v>60</v>
@@ -11500,10 +12040,10 @@
         <v>73</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E416" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F416">
         <v>60</v>
@@ -11526,10 +12066,10 @@
         <v>73</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E417" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F417">
         <v>60</v>
@@ -11552,10 +12092,10 @@
         <v>73</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E418" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F418">
         <v>60</v>
@@ -11578,10 +12118,10 @@
         <v>73</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E419" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F419">
         <v>60</v>
@@ -11604,10 +12144,10 @@
         <v>73</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E420" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F420">
         <v>60</v>
@@ -11630,10 +12170,10 @@
         <v>73</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E421" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F421">
         <v>60</v>
@@ -11656,10 +12196,10 @@
         <v>73</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E422" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F422">
         <v>60</v>
@@ -11682,10 +12222,10 @@
         <v>73</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E423" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F423">
         <v>60</v>
@@ -11708,10 +12248,10 @@
         <v>73</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E424" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F424">
         <v>60</v>
@@ -11734,10 +12274,10 @@
         <v>73</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E425" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F425">
         <v>60</v>
@@ -11760,10 +12300,10 @@
         <v>73</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E426" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F426">
         <v>60</v>
@@ -11786,10 +12326,10 @@
         <v>73</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E427" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F427">
         <v>60</v>
@@ -11812,10 +12352,10 @@
         <v>73</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E428" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F428">
         <v>60</v>
@@ -11838,10 +12378,10 @@
         <v>73</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E429" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F429">
         <v>60</v>
@@ -11864,10 +12404,10 @@
         <v>73</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E430" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F430">
         <v>60</v>
@@ -11890,10 +12430,10 @@
         <v>73</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E431" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F431">
         <v>60</v>
@@ -11916,10 +12456,10 @@
         <v>73</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E432" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F432">
         <v>60</v>
@@ -11942,10 +12482,10 @@
         <v>73</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E433" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F433">
         <v>60</v>
@@ -11968,10 +12508,10 @@
         <v>73</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E434" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F434">
         <v>60</v>
@@ -11994,10 +12534,10 @@
         <v>73</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E435" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F435">
         <v>60</v>
@@ -12020,10 +12560,10 @@
         <v>74</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E436" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F436">
         <v>60</v>
@@ -12046,10 +12586,10 @@
         <v>74</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E437" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F437">
         <v>60</v>
@@ -12072,10 +12612,10 @@
         <v>74</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E438" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F438">
         <v>60</v>
@@ -12098,10 +12638,10 @@
         <v>74</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E439" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F439">
         <v>60</v>
@@ -12124,10 +12664,10 @@
         <v>74</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E440" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F440">
         <v>60</v>
@@ -12150,10 +12690,10 @@
         <v>74</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E441" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F441">
         <v>60</v>
@@ -12176,10 +12716,10 @@
         <v>74</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E442" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F442">
         <v>60</v>
@@ -12202,10 +12742,10 @@
         <v>74</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E443" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F443">
         <v>60</v>
@@ -12228,10 +12768,10 @@
         <v>74</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E444" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F444">
         <v>60</v>
@@ -12254,10 +12794,10 @@
         <v>74</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E445" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F445">
         <v>60</v>
@@ -12280,10 +12820,10 @@
         <v>74</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E446" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F446">
         <v>60</v>
@@ -12306,10 +12846,10 @@
         <v>74</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E447" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F447">
         <v>60</v>
@@ -12332,10 +12872,10 @@
         <v>74</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E448" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F448">
         <v>60</v>
@@ -12358,10 +12898,10 @@
         <v>74</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E449" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F449">
         <v>60</v>
@@ -12384,10 +12924,10 @@
         <v>74</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E450" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F450">
         <v>60</v>
@@ -12410,10 +12950,10 @@
         <v>74</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E451" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F451">
         <v>60</v>
@@ -12436,10 +12976,10 @@
         <v>74</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E452" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F452">
         <v>60</v>
@@ -12462,10 +13002,10 @@
         <v>74</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E453" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F453">
         <v>60</v>
@@ -12488,10 +13028,10 @@
         <v>74</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E454" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F454">
         <v>60</v>
@@ -12514,10 +13054,10 @@
         <v>74</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E455" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F455">
         <v>60</v>
@@ -12540,10 +13080,10 @@
         <v>74</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E456" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F456">
         <v>60</v>
@@ -12566,10 +13106,10 @@
         <v>74</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E457" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F457">
         <v>60</v>
@@ -12592,10 +13132,10 @@
         <v>74</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E458" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F458">
         <v>60</v>
@@ -12618,10 +13158,10 @@
         <v>74</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E459" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F459">
         <v>60</v>
@@ -12637,36 +13177,42 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanConfig/Datas/OnlinePlayerConfig.xlsx
+++ b/LubanConfig/Datas/OnlinePlayerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="18690" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,12 +207,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,6 +244,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -256,6 +278,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,21 +325,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,20 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,13 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,18 +497,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,31 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,19 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,12 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +602,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -629,21 +645,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,148 +703,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,69 +855,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1219,7 +1220,7 @@
   <dimension ref="A1:I459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,10 +1341,10 @@
         <v>300</v>
       </c>
       <c r="H4" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1366,10 +1367,10 @@
         <v>300</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1392,10 +1393,10 @@
         <v>300</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1418,10 +1419,10 @@
         <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -1444,10 +1445,10 @@
         <v>300</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -1470,10 +1471,10 @@
         <v>300</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -1496,10 +1497,10 @@
         <v>300</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1522,10 +1523,10 @@
         <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1548,10 +1549,10 @@
         <v>300</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1574,10 +1575,10 @@
         <v>300</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -1600,10 +1601,10 @@
         <v>300</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -1626,10 +1627,10 @@
         <v>300</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1652,10 +1653,10 @@
         <v>300</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1678,10 +1679,10 @@
         <v>300</v>
       </c>
       <c r="H17" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1704,10 +1705,10 @@
         <v>300</v>
       </c>
       <c r="H18" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -1730,10 +1731,10 @@
         <v>300</v>
       </c>
       <c r="H19" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1756,10 +1757,10 @@
         <v>300</v>
       </c>
       <c r="H20" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -1782,10 +1783,10 @@
         <v>300</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I21" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1808,10 +1809,10 @@
         <v>300</v>
       </c>
       <c r="H22" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -1834,10 +1835,10 @@
         <v>300</v>
       </c>
       <c r="H23" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1860,10 +1861,10 @@
         <v>300</v>
       </c>
       <c r="H24" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1886,10 +1887,10 @@
         <v>300</v>
       </c>
       <c r="H25" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -1912,10 +1913,10 @@
         <v>300</v>
       </c>
       <c r="H26" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I26" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -1938,10 +1939,10 @@
         <v>300</v>
       </c>
       <c r="H27" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I27" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -1964,10 +1965,10 @@
         <v>300</v>
       </c>
       <c r="H28" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I28" s="7">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1990,10 +1991,10 @@
         <v>300</v>
       </c>
       <c r="H29" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I29" s="7">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2016,10 +2017,10 @@
         <v>300</v>
       </c>
       <c r="H30" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I30" s="7">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -2042,10 +2043,10 @@
         <v>300</v>
       </c>
       <c r="H31" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I31" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -2068,10 +2069,10 @@
         <v>300</v>
       </c>
       <c r="H32" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I32" s="7">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2094,10 +2095,10 @@
         <v>300</v>
       </c>
       <c r="H33" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I33" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2120,10 +2121,10 @@
         <v>300</v>
       </c>
       <c r="H34" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I34" s="7">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2146,10 +2147,10 @@
         <v>300</v>
       </c>
       <c r="H35" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I35" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2172,10 +2173,10 @@
         <v>300</v>
       </c>
       <c r="H36" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I36" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2198,10 +2199,10 @@
         <v>300</v>
       </c>
       <c r="H37" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I37" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2224,10 +2225,10 @@
         <v>300</v>
       </c>
       <c r="H38" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I38" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2250,10 +2251,10 @@
         <v>300</v>
       </c>
       <c r="H39" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I39" s="7">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2276,10 +2277,10 @@
         <v>300</v>
       </c>
       <c r="H40" s="7">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I40" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2302,10 +2303,10 @@
         <v>300</v>
       </c>
       <c r="H41" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I41" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2328,10 +2329,10 @@
         <v>300</v>
       </c>
       <c r="H42" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I42" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2354,10 +2355,10 @@
         <v>300</v>
       </c>
       <c r="H43" s="7">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I43" s="7">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2380,10 +2381,10 @@
         <v>300</v>
       </c>
       <c r="H44" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I44" s="7">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -2406,10 +2407,10 @@
         <v>300</v>
       </c>
       <c r="H45" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I45" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2432,10 +2433,10 @@
         <v>300</v>
       </c>
       <c r="H46" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I46" s="7">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -2458,10 +2459,10 @@
         <v>300</v>
       </c>
       <c r="H47" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I47" s="7">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -2484,10 +2485,10 @@
         <v>300</v>
       </c>
       <c r="H48" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I48" s="7">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -2510,10 +2511,10 @@
         <v>300</v>
       </c>
       <c r="H49" s="7">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I49" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2536,10 +2537,10 @@
         <v>300</v>
       </c>
       <c r="H50" s="7">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I50" s="7">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2562,10 +2563,10 @@
         <v>300</v>
       </c>
       <c r="H51" s="7">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I51" s="7">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2588,10 +2589,10 @@
         <v>300</v>
       </c>
       <c r="H52" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I52" s="7">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -2614,10 +2615,10 @@
         <v>300</v>
       </c>
       <c r="H53" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I53" s="7">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2640,10 +2641,10 @@
         <v>300</v>
       </c>
       <c r="H54" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I54" s="7">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2666,10 +2667,10 @@
         <v>300</v>
       </c>
       <c r="H55" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I55" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2692,10 +2693,10 @@
         <v>300</v>
       </c>
       <c r="H56" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I56" s="7">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2718,10 +2719,10 @@
         <v>300</v>
       </c>
       <c r="H57" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I57" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2744,10 +2745,10 @@
         <v>300</v>
       </c>
       <c r="H58" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I58" s="7">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -2770,10 +2771,10 @@
         <v>300</v>
       </c>
       <c r="H59" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I59" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -2796,10 +2797,10 @@
         <v>300</v>
       </c>
       <c r="H60" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I60" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -2822,10 +2823,10 @@
         <v>300</v>
       </c>
       <c r="H61" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I61" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2848,10 +2849,10 @@
         <v>300</v>
       </c>
       <c r="H62" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I62" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -2874,10 +2875,10 @@
         <v>300</v>
       </c>
       <c r="H63" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I63" s="7">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2900,10 +2901,10 @@
         <v>300</v>
       </c>
       <c r="H64" s="7">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I64" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -2926,10 +2927,10 @@
         <v>300</v>
       </c>
       <c r="H65" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I65" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2952,10 +2953,10 @@
         <v>300</v>
       </c>
       <c r="H66" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I66" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2978,10 +2979,10 @@
         <v>300</v>
       </c>
       <c r="H67" s="7">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I67" s="7">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3004,10 +3005,10 @@
         <v>300</v>
       </c>
       <c r="H68" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I68" s="7">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -3030,10 +3031,10 @@
         <v>300</v>
       </c>
       <c r="H69" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I69" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -3056,10 +3057,10 @@
         <v>300</v>
       </c>
       <c r="H70" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I70" s="7">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -3082,10 +3083,10 @@
         <v>300</v>
       </c>
       <c r="H71" s="7">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I71" s="7">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -3108,10 +3109,10 @@
         <v>300</v>
       </c>
       <c r="H72" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I72" s="7">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -3134,10 +3135,10 @@
         <v>300</v>
       </c>
       <c r="H73" s="7">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I73" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -3160,10 +3161,10 @@
         <v>300</v>
       </c>
       <c r="H74" s="7">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I74" s="7">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -3186,10 +3187,10 @@
         <v>300</v>
       </c>
       <c r="H75" s="7">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I75" s="7">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -3211,11 +3212,11 @@
       <c r="G76">
         <v>300</v>
       </c>
-      <c r="H76">
-        <v>900</v>
-      </c>
-      <c r="I76">
-        <v>1350</v>
+      <c r="H76" s="7">
+        <v>30</v>
+      </c>
+      <c r="I76" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -3237,11 +3238,11 @@
       <c r="G77">
         <v>300</v>
       </c>
-      <c r="H77">
-        <v>600</v>
-      </c>
-      <c r="I77">
-        <v>1050</v>
+      <c r="H77" s="7">
+        <v>30</v>
+      </c>
+      <c r="I77" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -3263,11 +3264,11 @@
       <c r="G78">
         <v>300</v>
       </c>
-      <c r="H78">
-        <v>150</v>
-      </c>
-      <c r="I78">
-        <v>750</v>
+      <c r="H78" s="7">
+        <v>30</v>
+      </c>
+      <c r="I78" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -3289,11 +3290,11 @@
       <c r="G79">
         <v>300</v>
       </c>
-      <c r="H79">
-        <v>75</v>
-      </c>
-      <c r="I79">
-        <v>450</v>
+      <c r="H79" s="7">
+        <v>30</v>
+      </c>
+      <c r="I79" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -3315,11 +3316,11 @@
       <c r="G80">
         <v>300</v>
       </c>
-      <c r="H80">
-        <v>60</v>
-      </c>
-      <c r="I80">
-        <v>375</v>
+      <c r="H80" s="7">
+        <v>30</v>
+      </c>
+      <c r="I80" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -3341,11 +3342,11 @@
       <c r="G81">
         <v>300</v>
       </c>
-      <c r="H81">
-        <v>45</v>
-      </c>
-      <c r="I81">
-        <v>300</v>
+      <c r="H81" s="7">
+        <v>30</v>
+      </c>
+      <c r="I81" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -3367,11 +3368,11 @@
       <c r="G82">
         <v>300</v>
       </c>
-      <c r="H82">
-        <v>45</v>
-      </c>
-      <c r="I82">
-        <v>375</v>
+      <c r="H82" s="7">
+        <v>30</v>
+      </c>
+      <c r="I82" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -3393,11 +3394,11 @@
       <c r="G83">
         <v>300</v>
       </c>
-      <c r="H83">
-        <v>150</v>
-      </c>
-      <c r="I83">
-        <v>450</v>
+      <c r="H83" s="7">
+        <v>30</v>
+      </c>
+      <c r="I83" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -3419,11 +3420,11 @@
       <c r="G84">
         <v>300</v>
       </c>
-      <c r="H84">
-        <v>225</v>
-      </c>
-      <c r="I84">
-        <v>525</v>
+      <c r="H84" s="7">
+        <v>30</v>
+      </c>
+      <c r="I84" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -3445,11 +3446,11 @@
       <c r="G85">
         <v>300</v>
       </c>
-      <c r="H85">
-        <v>270</v>
-      </c>
-      <c r="I85">
-        <v>600</v>
+      <c r="H85" s="7">
+        <v>30</v>
+      </c>
+      <c r="I85" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -3471,11 +3472,11 @@
       <c r="G86">
         <v>300</v>
       </c>
-      <c r="H86">
-        <v>300</v>
-      </c>
-      <c r="I86">
-        <v>675</v>
+      <c r="H86" s="7">
+        <v>30</v>
+      </c>
+      <c r="I86" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -3497,11 +3498,11 @@
       <c r="G87">
         <v>300</v>
       </c>
-      <c r="H87">
-        <v>300</v>
-      </c>
-      <c r="I87">
-        <v>750</v>
+      <c r="H87" s="7">
+        <v>30</v>
+      </c>
+      <c r="I87" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -3523,11 +3524,11 @@
       <c r="G88">
         <v>300</v>
       </c>
-      <c r="H88">
-        <v>300</v>
-      </c>
-      <c r="I88">
-        <v>825</v>
+      <c r="H88" s="7">
+        <v>30</v>
+      </c>
+      <c r="I88" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -3549,11 +3550,11 @@
       <c r="G89">
         <v>300</v>
       </c>
-      <c r="H89">
-        <v>450</v>
-      </c>
-      <c r="I89">
-        <v>900</v>
+      <c r="H89" s="7">
+        <v>30</v>
+      </c>
+      <c r="I89" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -3575,11 +3576,11 @@
       <c r="G90">
         <v>300</v>
       </c>
-      <c r="H90">
-        <v>525</v>
-      </c>
-      <c r="I90">
-        <v>975</v>
+      <c r="H90" s="7">
+        <v>30</v>
+      </c>
+      <c r="I90" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -3601,11 +3602,11 @@
       <c r="G91">
         <v>300</v>
       </c>
-      <c r="H91">
-        <v>600</v>
-      </c>
-      <c r="I91">
-        <v>1050</v>
+      <c r="H91" s="7">
+        <v>30</v>
+      </c>
+      <c r="I91" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -3627,11 +3628,11 @@
       <c r="G92">
         <v>300</v>
       </c>
-      <c r="H92">
-        <v>750</v>
-      </c>
-      <c r="I92">
-        <v>1125</v>
+      <c r="H92" s="7">
+        <v>30</v>
+      </c>
+      <c r="I92" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -3653,11 +3654,11 @@
       <c r="G93">
         <v>300</v>
       </c>
-      <c r="H93">
-        <v>825</v>
-      </c>
-      <c r="I93">
-        <v>1200</v>
+      <c r="H93" s="7">
+        <v>30</v>
+      </c>
+      <c r="I93" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -3679,11 +3680,11 @@
       <c r="G94">
         <v>300</v>
       </c>
-      <c r="H94">
-        <v>900</v>
-      </c>
-      <c r="I94">
-        <v>1275</v>
+      <c r="H94" s="7">
+        <v>30</v>
+      </c>
+      <c r="I94" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -3705,11 +3706,11 @@
       <c r="G95">
         <v>300</v>
       </c>
-      <c r="H95">
-        <v>975</v>
-      </c>
-      <c r="I95">
-        <v>1350</v>
+      <c r="H95" s="7">
+        <v>30</v>
+      </c>
+      <c r="I95" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -3731,11 +3732,11 @@
       <c r="G96">
         <v>300</v>
       </c>
-      <c r="H96">
-        <v>1050</v>
-      </c>
-      <c r="I96">
-        <v>1425</v>
+      <c r="H96" s="7">
+        <v>30</v>
+      </c>
+      <c r="I96" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="2:9">
@@ -3757,11 +3758,11 @@
       <c r="G97">
         <v>300</v>
       </c>
-      <c r="H97">
-        <v>1125</v>
-      </c>
-      <c r="I97">
-        <v>1500</v>
+      <c r="H97" s="7">
+        <v>30</v>
+      </c>
+      <c r="I97" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="2:9">
@@ -3783,11 +3784,11 @@
       <c r="G98">
         <v>300</v>
       </c>
-      <c r="H98">
-        <v>1125</v>
-      </c>
-      <c r="I98">
-        <v>1500</v>
+      <c r="H98" s="7">
+        <v>30</v>
+      </c>
+      <c r="I98" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:9">
@@ -3809,11 +3810,11 @@
       <c r="G99">
         <v>300</v>
       </c>
-      <c r="H99">
-        <v>1200</v>
-      </c>
-      <c r="I99">
-        <v>1500</v>
+      <c r="H99" s="7">
+        <v>30</v>
+      </c>
+      <c r="I99" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="2:9">
@@ -3835,11 +3836,11 @@
       <c r="G100">
         <v>300</v>
       </c>
-      <c r="H100">
-        <v>900</v>
-      </c>
-      <c r="I100">
-        <v>1350</v>
+      <c r="H100" s="7">
+        <v>30</v>
+      </c>
+      <c r="I100" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="2:9">
@@ -3861,11 +3862,11 @@
       <c r="G101">
         <v>300</v>
       </c>
-      <c r="H101">
-        <v>600</v>
-      </c>
-      <c r="I101">
-        <v>1050</v>
+      <c r="H101" s="7">
+        <v>30</v>
+      </c>
+      <c r="I101" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:9">
@@ -3887,11 +3888,11 @@
       <c r="G102">
         <v>300</v>
       </c>
-      <c r="H102">
-        <v>150</v>
-      </c>
-      <c r="I102">
-        <v>750</v>
+      <c r="H102" s="7">
+        <v>30</v>
+      </c>
+      <c r="I102" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="2:9">
@@ -3913,11 +3914,11 @@
       <c r="G103">
         <v>300</v>
       </c>
-      <c r="H103">
-        <v>75</v>
-      </c>
-      <c r="I103">
-        <v>450</v>
+      <c r="H103" s="7">
+        <v>30</v>
+      </c>
+      <c r="I103" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="2:9">
@@ -3939,11 +3940,11 @@
       <c r="G104">
         <v>300</v>
       </c>
-      <c r="H104">
-        <v>60</v>
-      </c>
-      <c r="I104">
-        <v>375</v>
+      <c r="H104" s="7">
+        <v>30</v>
+      </c>
+      <c r="I104" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="2:9">
@@ -3965,11 +3966,11 @@
       <c r="G105">
         <v>300</v>
       </c>
-      <c r="H105">
-        <v>45</v>
-      </c>
-      <c r="I105">
-        <v>300</v>
+      <c r="H105" s="7">
+        <v>30</v>
+      </c>
+      <c r="I105" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -3991,11 +3992,11 @@
       <c r="G106">
         <v>300</v>
       </c>
-      <c r="H106">
-        <v>45</v>
-      </c>
-      <c r="I106">
-        <v>375</v>
+      <c r="H106" s="7">
+        <v>30</v>
+      </c>
+      <c r="I106" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="2:9">
@@ -4017,11 +4018,11 @@
       <c r="G107">
         <v>300</v>
       </c>
-      <c r="H107">
-        <v>150</v>
-      </c>
-      <c r="I107">
-        <v>450</v>
+      <c r="H107" s="7">
+        <v>30</v>
+      </c>
+      <c r="I107" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="2:9">
@@ -4043,11 +4044,11 @@
       <c r="G108">
         <v>300</v>
       </c>
-      <c r="H108">
-        <v>225</v>
-      </c>
-      <c r="I108">
-        <v>525</v>
+      <c r="H108" s="7">
+        <v>30</v>
+      </c>
+      <c r="I108" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="2:9">
@@ -4069,11 +4070,11 @@
       <c r="G109">
         <v>300</v>
       </c>
-      <c r="H109">
-        <v>270</v>
-      </c>
-      <c r="I109">
-        <v>600</v>
+      <c r="H109" s="7">
+        <v>30</v>
+      </c>
+      <c r="I109" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="2:9">
@@ -4095,11 +4096,11 @@
       <c r="G110">
         <v>300</v>
       </c>
-      <c r="H110">
-        <v>300</v>
-      </c>
-      <c r="I110">
-        <v>675</v>
+      <c r="H110" s="7">
+        <v>30</v>
+      </c>
+      <c r="I110" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="2:9">
@@ -4121,11 +4122,11 @@
       <c r="G111">
         <v>300</v>
       </c>
-      <c r="H111">
-        <v>300</v>
-      </c>
-      <c r="I111">
-        <v>750</v>
+      <c r="H111" s="7">
+        <v>30</v>
+      </c>
+      <c r="I111" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -4147,11 +4148,11 @@
       <c r="G112">
         <v>300</v>
       </c>
-      <c r="H112">
-        <v>300</v>
-      </c>
-      <c r="I112">
-        <v>825</v>
+      <c r="H112" s="7">
+        <v>30</v>
+      </c>
+      <c r="I112" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="2:9">
@@ -4173,11 +4174,11 @@
       <c r="G113">
         <v>300</v>
       </c>
-      <c r="H113">
-        <v>450</v>
-      </c>
-      <c r="I113">
-        <v>900</v>
+      <c r="H113" s="7">
+        <v>30</v>
+      </c>
+      <c r="I113" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="2:9">
@@ -4199,11 +4200,11 @@
       <c r="G114">
         <v>300</v>
       </c>
-      <c r="H114">
-        <v>525</v>
-      </c>
-      <c r="I114">
-        <v>975</v>
+      <c r="H114" s="7">
+        <v>30</v>
+      </c>
+      <c r="I114" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="2:9">
@@ -4225,11 +4226,11 @@
       <c r="G115">
         <v>300</v>
       </c>
-      <c r="H115">
-        <v>600</v>
-      </c>
-      <c r="I115">
-        <v>1050</v>
+      <c r="H115" s="7">
+        <v>30</v>
+      </c>
+      <c r="I115" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="2:9">
@@ -4251,11 +4252,11 @@
       <c r="G116">
         <v>300</v>
       </c>
-      <c r="H116">
-        <v>750</v>
-      </c>
-      <c r="I116">
-        <v>1125</v>
+      <c r="H116" s="7">
+        <v>30</v>
+      </c>
+      <c r="I116" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="2:9">
@@ -4277,11 +4278,11 @@
       <c r="G117">
         <v>300</v>
       </c>
-      <c r="H117">
-        <v>825</v>
-      </c>
-      <c r="I117">
-        <v>1200</v>
+      <c r="H117" s="7">
+        <v>30</v>
+      </c>
+      <c r="I117" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -4303,11 +4304,11 @@
       <c r="G118">
         <v>300</v>
       </c>
-      <c r="H118">
-        <v>900</v>
-      </c>
-      <c r="I118">
-        <v>1275</v>
+      <c r="H118" s="7">
+        <v>30</v>
+      </c>
+      <c r="I118" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="2:9">
@@ -4329,11 +4330,11 @@
       <c r="G119">
         <v>300</v>
       </c>
-      <c r="H119">
-        <v>975</v>
-      </c>
-      <c r="I119">
-        <v>1350</v>
+      <c r="H119" s="7">
+        <v>30</v>
+      </c>
+      <c r="I119" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="2:9">
@@ -4355,11 +4356,11 @@
       <c r="G120">
         <v>300</v>
       </c>
-      <c r="H120">
-        <v>1050</v>
-      </c>
-      <c r="I120">
-        <v>1425</v>
+      <c r="H120" s="7">
+        <v>30</v>
+      </c>
+      <c r="I120" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -4381,11 +4382,11 @@
       <c r="G121">
         <v>300</v>
       </c>
-      <c r="H121">
-        <v>1125</v>
-      </c>
-      <c r="I121">
-        <v>1500</v>
+      <c r="H121" s="7">
+        <v>30</v>
+      </c>
+      <c r="I121" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="2:9">
@@ -4407,11 +4408,11 @@
       <c r="G122">
         <v>300</v>
       </c>
-      <c r="H122">
-        <v>1125</v>
-      </c>
-      <c r="I122">
-        <v>1500</v>
+      <c r="H122" s="7">
+        <v>30</v>
+      </c>
+      <c r="I122" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -4433,11 +4434,11 @@
       <c r="G123">
         <v>300</v>
       </c>
-      <c r="H123">
-        <v>1200</v>
-      </c>
-      <c r="I123">
-        <v>1500</v>
+      <c r="H123" s="7">
+        <v>30</v>
+      </c>
+      <c r="I123" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="2:9">
@@ -4459,11 +4460,11 @@
       <c r="G124">
         <v>300</v>
       </c>
-      <c r="H124">
-        <v>900</v>
-      </c>
-      <c r="I124">
-        <v>1350</v>
+      <c r="H124" s="7">
+        <v>30</v>
+      </c>
+      <c r="I124" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="2:9">
@@ -4485,11 +4486,11 @@
       <c r="G125">
         <v>300</v>
       </c>
-      <c r="H125">
-        <v>600</v>
-      </c>
-      <c r="I125">
-        <v>1050</v>
+      <c r="H125" s="7">
+        <v>30</v>
+      </c>
+      <c r="I125" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="2:9">
@@ -4511,11 +4512,11 @@
       <c r="G126">
         <v>300</v>
       </c>
-      <c r="H126">
-        <v>150</v>
-      </c>
-      <c r="I126">
-        <v>750</v>
+      <c r="H126" s="7">
+        <v>30</v>
+      </c>
+      <c r="I126" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="2:9">
@@ -4537,11 +4538,11 @@
       <c r="G127">
         <v>300</v>
       </c>
-      <c r="H127">
-        <v>75</v>
-      </c>
-      <c r="I127">
-        <v>450</v>
+      <c r="H127" s="7">
+        <v>30</v>
+      </c>
+      <c r="I127" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="2:9">
@@ -4563,11 +4564,11 @@
       <c r="G128">
         <v>300</v>
       </c>
-      <c r="H128">
-        <v>60</v>
-      </c>
-      <c r="I128">
-        <v>375</v>
+      <c r="H128" s="7">
+        <v>30</v>
+      </c>
+      <c r="I128" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="2:9">
@@ -4589,11 +4590,11 @@
       <c r="G129">
         <v>300</v>
       </c>
-      <c r="H129">
-        <v>45</v>
-      </c>
-      <c r="I129">
-        <v>300</v>
+      <c r="H129" s="7">
+        <v>30</v>
+      </c>
+      <c r="I129" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="2:9">
@@ -4615,11 +4616,11 @@
       <c r="G130">
         <v>300</v>
       </c>
-      <c r="H130">
-        <v>45</v>
-      </c>
-      <c r="I130">
-        <v>375</v>
+      <c r="H130" s="7">
+        <v>30</v>
+      </c>
+      <c r="I130" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="2:9">
@@ -4641,11 +4642,11 @@
       <c r="G131">
         <v>300</v>
       </c>
-      <c r="H131">
-        <v>150</v>
-      </c>
-      <c r="I131">
-        <v>450</v>
+      <c r="H131" s="7">
+        <v>30</v>
+      </c>
+      <c r="I131" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="2:9">
@@ -4667,11 +4668,11 @@
       <c r="G132">
         <v>300</v>
       </c>
-      <c r="H132">
-        <v>225</v>
-      </c>
-      <c r="I132">
-        <v>525</v>
+      <c r="H132" s="7">
+        <v>30</v>
+      </c>
+      <c r="I132" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="2:9">
@@ -4693,11 +4694,11 @@
       <c r="G133">
         <v>300</v>
       </c>
-      <c r="H133">
-        <v>270</v>
-      </c>
-      <c r="I133">
-        <v>600</v>
+      <c r="H133" s="7">
+        <v>30</v>
+      </c>
+      <c r="I133" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="2:9">
@@ -4719,11 +4720,11 @@
       <c r="G134">
         <v>300</v>
       </c>
-      <c r="H134">
-        <v>300</v>
-      </c>
-      <c r="I134">
-        <v>675</v>
+      <c r="H134" s="7">
+        <v>30</v>
+      </c>
+      <c r="I134" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="2:9">
@@ -4745,11 +4746,11 @@
       <c r="G135">
         <v>300</v>
       </c>
-      <c r="H135">
-        <v>300</v>
-      </c>
-      <c r="I135">
-        <v>750</v>
+      <c r="H135" s="7">
+        <v>30</v>
+      </c>
+      <c r="I135" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="2:9">
@@ -4771,11 +4772,11 @@
       <c r="G136">
         <v>300</v>
       </c>
-      <c r="H136">
-        <v>300</v>
-      </c>
-      <c r="I136">
-        <v>825</v>
+      <c r="H136" s="7">
+        <v>30</v>
+      </c>
+      <c r="I136" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="2:9">
@@ -4797,11 +4798,11 @@
       <c r="G137">
         <v>300</v>
       </c>
-      <c r="H137">
-        <v>450</v>
-      </c>
-      <c r="I137">
-        <v>900</v>
+      <c r="H137" s="7">
+        <v>30</v>
+      </c>
+      <c r="I137" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="2:9">
@@ -4823,11 +4824,11 @@
       <c r="G138">
         <v>300</v>
       </c>
-      <c r="H138">
-        <v>525</v>
-      </c>
-      <c r="I138">
-        <v>975</v>
+      <c r="H138" s="7">
+        <v>30</v>
+      </c>
+      <c r="I138" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="2:9">
@@ -4849,11 +4850,11 @@
       <c r="G139">
         <v>300</v>
       </c>
-      <c r="H139">
-        <v>600</v>
-      </c>
-      <c r="I139">
-        <v>1050</v>
+      <c r="H139" s="7">
+        <v>30</v>
+      </c>
+      <c r="I139" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="2:9">
@@ -4875,11 +4876,11 @@
       <c r="G140">
         <v>300</v>
       </c>
-      <c r="H140">
-        <v>750</v>
-      </c>
-      <c r="I140">
-        <v>1125</v>
+      <c r="H140" s="7">
+        <v>30</v>
+      </c>
+      <c r="I140" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="2:9">
@@ -4901,11 +4902,11 @@
       <c r="G141">
         <v>300</v>
       </c>
-      <c r="H141">
-        <v>825</v>
-      </c>
-      <c r="I141">
-        <v>1200</v>
+      <c r="H141" s="7">
+        <v>30</v>
+      </c>
+      <c r="I141" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="2:9">
@@ -4927,11 +4928,11 @@
       <c r="G142">
         <v>300</v>
       </c>
-      <c r="H142">
-        <v>900</v>
-      </c>
-      <c r="I142">
-        <v>1275</v>
+      <c r="H142" s="7">
+        <v>30</v>
+      </c>
+      <c r="I142" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="2:9">
@@ -4953,11 +4954,11 @@
       <c r="G143">
         <v>300</v>
       </c>
-      <c r="H143">
-        <v>975</v>
-      </c>
-      <c r="I143">
-        <v>1350</v>
+      <c r="H143" s="7">
+        <v>30</v>
+      </c>
+      <c r="I143" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="2:9">
@@ -4979,11 +4980,11 @@
       <c r="G144">
         <v>300</v>
       </c>
-      <c r="H144">
-        <v>1050</v>
-      </c>
-      <c r="I144">
-        <v>1425</v>
+      <c r="H144" s="7">
+        <v>30</v>
+      </c>
+      <c r="I144" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="2:9">
@@ -5005,11 +5006,11 @@
       <c r="G145">
         <v>300</v>
       </c>
-      <c r="H145">
-        <v>1125</v>
-      </c>
-      <c r="I145">
-        <v>1500</v>
+      <c r="H145" s="7">
+        <v>30</v>
+      </c>
+      <c r="I145" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="2:9">
@@ -5031,11 +5032,11 @@
       <c r="G146">
         <v>300</v>
       </c>
-      <c r="H146">
-        <v>1125</v>
-      </c>
-      <c r="I146">
-        <v>1500</v>
+      <c r="H146" s="7">
+        <v>30</v>
+      </c>
+      <c r="I146" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="2:9">
@@ -5057,11 +5058,11 @@
       <c r="G147">
         <v>300</v>
       </c>
-      <c r="H147">
-        <v>1200</v>
-      </c>
-      <c r="I147">
-        <v>1500</v>
+      <c r="H147" s="7">
+        <v>30</v>
+      </c>
+      <c r="I147" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="2:9">
@@ -5084,10 +5085,10 @@
         <v>300</v>
       </c>
       <c r="H148" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I148" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="2:9">
@@ -5110,10 +5111,10 @@
         <v>300</v>
       </c>
       <c r="H149" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I149" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="2:9">
@@ -5136,10 +5137,10 @@
         <v>300</v>
       </c>
       <c r="H150" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I150" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="2:9">
@@ -5162,10 +5163,10 @@
         <v>300</v>
       </c>
       <c r="H151" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I151" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="2:9">
@@ -5188,10 +5189,10 @@
         <v>300</v>
       </c>
       <c r="H152" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I152" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="2:9">
@@ -5214,10 +5215,10 @@
         <v>300</v>
       </c>
       <c r="H153" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I153" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="2:9">
@@ -5240,10 +5241,10 @@
         <v>300</v>
       </c>
       <c r="H154" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I154" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="2:9">
@@ -5266,10 +5267,10 @@
         <v>300</v>
       </c>
       <c r="H155" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I155" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="2:9">
@@ -5292,10 +5293,10 @@
         <v>300</v>
       </c>
       <c r="H156" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I156" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="2:9">
@@ -5318,10 +5319,10 @@
         <v>300</v>
       </c>
       <c r="H157" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I157" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="2:9">
@@ -5344,10 +5345,10 @@
         <v>300</v>
       </c>
       <c r="H158" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I158" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="2:9">
@@ -5370,10 +5371,10 @@
         <v>300</v>
       </c>
       <c r="H159" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I159" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="2:9">
@@ -5396,10 +5397,10 @@
         <v>300</v>
       </c>
       <c r="H160" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I160" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="2:9">
@@ -5422,10 +5423,10 @@
         <v>300</v>
       </c>
       <c r="H161" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I161" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="2:9">
@@ -5448,10 +5449,10 @@
         <v>300</v>
       </c>
       <c r="H162" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I162" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="2:9">
@@ -5474,10 +5475,10 @@
         <v>300</v>
       </c>
       <c r="H163" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I163" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="2:9">
@@ -5500,10 +5501,10 @@
         <v>300</v>
       </c>
       <c r="H164" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I164" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="2:9">
@@ -5526,10 +5527,10 @@
         <v>300</v>
       </c>
       <c r="H165" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I165" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="2:9">
@@ -5552,10 +5553,10 @@
         <v>300</v>
       </c>
       <c r="H166" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I166" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="2:9">
@@ -5578,10 +5579,10 @@
         <v>300</v>
       </c>
       <c r="H167" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I167" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="2:9">
@@ -5604,10 +5605,10 @@
         <v>300</v>
       </c>
       <c r="H168" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I168" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="2:9">
@@ -5630,10 +5631,10 @@
         <v>300</v>
       </c>
       <c r="H169" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I169" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="2:9">
@@ -5656,10 +5657,10 @@
         <v>300</v>
       </c>
       <c r="H170" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I170" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="2:9">
@@ -5682,10 +5683,10 @@
         <v>300</v>
       </c>
       <c r="H171" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I171" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="2:9">
@@ -5708,10 +5709,10 @@
         <v>300</v>
       </c>
       <c r="H172" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I172" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="2:9">
@@ -5734,10 +5735,10 @@
         <v>300</v>
       </c>
       <c r="H173" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I173" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="2:9">
@@ -5760,10 +5761,10 @@
         <v>300</v>
       </c>
       <c r="H174" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I174" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="2:9">
@@ -5786,10 +5787,10 @@
         <v>300</v>
       </c>
       <c r="H175" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I175" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="2:9">
@@ -5812,10 +5813,10 @@
         <v>300</v>
       </c>
       <c r="H176" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I176" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="2:9">
@@ -5838,10 +5839,10 @@
         <v>300</v>
       </c>
       <c r="H177" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I177" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="2:9">
@@ -5864,10 +5865,10 @@
         <v>300</v>
       </c>
       <c r="H178" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I178" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="2:9">
@@ -5890,10 +5891,10 @@
         <v>300</v>
       </c>
       <c r="H179" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I179" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="2:9">
@@ -5916,10 +5917,10 @@
         <v>300</v>
       </c>
       <c r="H180" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I180" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="2:9">
@@ -5942,10 +5943,10 @@
         <v>300</v>
       </c>
       <c r="H181" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I181" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="2:9">
@@ -5968,10 +5969,10 @@
         <v>300</v>
       </c>
       <c r="H182" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I182" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="2:9">
@@ -5994,10 +5995,10 @@
         <v>300</v>
       </c>
       <c r="H183" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I183" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="2:9">
@@ -6020,10 +6021,10 @@
         <v>300</v>
       </c>
       <c r="H184" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I184" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="2:9">
@@ -6046,10 +6047,10 @@
         <v>300</v>
       </c>
       <c r="H185" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I185" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="2:9">
@@ -6072,10 +6073,10 @@
         <v>300</v>
       </c>
       <c r="H186" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I186" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="2:9">
@@ -6098,10 +6099,10 @@
         <v>300</v>
       </c>
       <c r="H187" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I187" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="2:9">
@@ -6124,10 +6125,10 @@
         <v>300</v>
       </c>
       <c r="H188" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I188" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="2:9">
@@ -6150,10 +6151,10 @@
         <v>300</v>
       </c>
       <c r="H189" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I189" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="2:9">
@@ -6176,10 +6177,10 @@
         <v>300</v>
       </c>
       <c r="H190" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I190" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="2:9">
@@ -6202,10 +6203,10 @@
         <v>300</v>
       </c>
       <c r="H191" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I191" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="2:9">
@@ -6228,10 +6229,10 @@
         <v>300</v>
       </c>
       <c r="H192" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I192" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="2:9">
@@ -6254,10 +6255,10 @@
         <v>300</v>
       </c>
       <c r="H193" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I193" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="2:9">
@@ -6280,10 +6281,10 @@
         <v>300</v>
       </c>
       <c r="H194" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I194" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="2:9">
@@ -6306,10 +6307,10 @@
         <v>300</v>
       </c>
       <c r="H195" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I195" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="2:9">
@@ -6332,10 +6333,10 @@
         <v>300</v>
       </c>
       <c r="H196" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I196" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="2:9">
@@ -6358,10 +6359,10 @@
         <v>300</v>
       </c>
       <c r="H197" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I197" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="2:9">
@@ -6384,10 +6385,10 @@
         <v>300</v>
       </c>
       <c r="H198" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I198" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="2:9">
@@ -6410,10 +6411,10 @@
         <v>300</v>
       </c>
       <c r="H199" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I199" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="2:9">
@@ -6436,10 +6437,10 @@
         <v>300</v>
       </c>
       <c r="H200" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I200" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="2:9">
@@ -6462,10 +6463,10 @@
         <v>300</v>
       </c>
       <c r="H201" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I201" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="2:9">
@@ -6488,10 +6489,10 @@
         <v>300</v>
       </c>
       <c r="H202" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I202" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="2:9">
@@ -6514,10 +6515,10 @@
         <v>300</v>
       </c>
       <c r="H203" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I203" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="2:9">
@@ -6540,10 +6541,10 @@
         <v>300</v>
       </c>
       <c r="H204" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I204" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="2:9">
@@ -6566,10 +6567,10 @@
         <v>300</v>
       </c>
       <c r="H205" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I205" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="2:9">
@@ -6592,10 +6593,10 @@
         <v>300</v>
       </c>
       <c r="H206" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I206" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="2:9">
@@ -6618,10 +6619,10 @@
         <v>300</v>
       </c>
       <c r="H207" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I207" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="2:9">
@@ -6644,10 +6645,10 @@
         <v>300</v>
       </c>
       <c r="H208" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I208" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="2:9">
@@ -6670,10 +6671,10 @@
         <v>300</v>
       </c>
       <c r="H209" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I209" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="2:9">
@@ -6696,10 +6697,10 @@
         <v>300</v>
       </c>
       <c r="H210" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I210" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="2:9">
@@ -6722,10 +6723,10 @@
         <v>300</v>
       </c>
       <c r="H211" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I211" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="2:9">
@@ -6748,10 +6749,10 @@
         <v>300</v>
       </c>
       <c r="H212" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I212" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="2:9">
@@ -6774,10 +6775,10 @@
         <v>300</v>
       </c>
       <c r="H213" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I213" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="2:9">
@@ -6800,10 +6801,10 @@
         <v>300</v>
       </c>
       <c r="H214" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I214" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="2:9">
@@ -6826,10 +6827,10 @@
         <v>300</v>
       </c>
       <c r="H215" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I215" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="2:9">
@@ -6852,10 +6853,10 @@
         <v>300</v>
       </c>
       <c r="H216" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I216" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="2:9">
@@ -6878,10 +6879,10 @@
         <v>300</v>
       </c>
       <c r="H217" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I217" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="2:9">
@@ -6904,10 +6905,10 @@
         <v>300</v>
       </c>
       <c r="H218" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I218" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="2:9">
@@ -6930,10 +6931,10 @@
         <v>300</v>
       </c>
       <c r="H219" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I219" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="2:9">
@@ -6956,10 +6957,10 @@
         <v>300</v>
       </c>
       <c r="H220" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I220" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="2:9">
@@ -6982,10 +6983,10 @@
         <v>300</v>
       </c>
       <c r="H221" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I221" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="2:9">
@@ -7008,10 +7009,10 @@
         <v>300</v>
       </c>
       <c r="H222" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I222" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="2:9">
@@ -7034,10 +7035,10 @@
         <v>300</v>
       </c>
       <c r="H223" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I223" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="2:9">
@@ -7060,10 +7061,10 @@
         <v>300</v>
       </c>
       <c r="H224" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I224" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="2:9">
@@ -7086,10 +7087,10 @@
         <v>300</v>
       </c>
       <c r="H225" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I225" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="2:9">
@@ -7112,10 +7113,10 @@
         <v>300</v>
       </c>
       <c r="H226" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I226" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="2:9">
@@ -7138,10 +7139,10 @@
         <v>300</v>
       </c>
       <c r="H227" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I227" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="2:9">
@@ -7164,10 +7165,10 @@
         <v>300</v>
       </c>
       <c r="H228" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I228" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="2:9">
@@ -7190,10 +7191,10 @@
         <v>300</v>
       </c>
       <c r="H229" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I229" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="2:9">
@@ -7216,10 +7217,10 @@
         <v>300</v>
       </c>
       <c r="H230" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I230" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="2:9">
@@ -7242,10 +7243,10 @@
         <v>300</v>
       </c>
       <c r="H231" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I231" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="2:9">
@@ -7268,10 +7269,10 @@
         <v>300</v>
       </c>
       <c r="H232" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I232" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="2:9">
@@ -7294,10 +7295,10 @@
         <v>300</v>
       </c>
       <c r="H233" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I233" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="2:9">
@@ -7320,10 +7321,10 @@
         <v>300</v>
       </c>
       <c r="H234" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I234" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="2:9">
@@ -7346,10 +7347,10 @@
         <v>300</v>
       </c>
       <c r="H235" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I235" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="2:9">
@@ -7372,10 +7373,10 @@
         <v>300</v>
       </c>
       <c r="H236" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I236" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="2:9">
@@ -7398,10 +7399,10 @@
         <v>300</v>
       </c>
       <c r="H237" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I237" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="2:9">
@@ -7424,10 +7425,10 @@
         <v>300</v>
       </c>
       <c r="H238" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I238" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="2:9">
@@ -7450,10 +7451,10 @@
         <v>300</v>
       </c>
       <c r="H239" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I239" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="2:9">
@@ -7476,10 +7477,10 @@
         <v>300</v>
       </c>
       <c r="H240" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I240" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="2:9">
@@ -7502,10 +7503,10 @@
         <v>300</v>
       </c>
       <c r="H241" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I241" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="2:9">
@@ -7528,10 +7529,10 @@
         <v>300</v>
       </c>
       <c r="H242" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I242" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="2:9">
@@ -7554,10 +7555,10 @@
         <v>300</v>
       </c>
       <c r="H243" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I243" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="2:9">
@@ -7580,10 +7581,10 @@
         <v>300</v>
       </c>
       <c r="H244" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I244" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="2:9">
@@ -7606,10 +7607,10 @@
         <v>300</v>
       </c>
       <c r="H245" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I245" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="2:9">
@@ -7632,10 +7633,10 @@
         <v>300</v>
       </c>
       <c r="H246" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I246" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="2:9">
@@ -7658,10 +7659,10 @@
         <v>300</v>
       </c>
       <c r="H247" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I247" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="2:9">
@@ -7684,10 +7685,10 @@
         <v>300</v>
       </c>
       <c r="H248" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I248" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="2:9">
@@ -7710,10 +7711,10 @@
         <v>300</v>
       </c>
       <c r="H249" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I249" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="2:9">
@@ -7736,10 +7737,10 @@
         <v>300</v>
       </c>
       <c r="H250" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I250" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="2:9">
@@ -7762,10 +7763,10 @@
         <v>300</v>
       </c>
       <c r="H251" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I251" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="2:9">
@@ -7788,10 +7789,10 @@
         <v>300</v>
       </c>
       <c r="H252" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I252" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="2:9">
@@ -7814,10 +7815,10 @@
         <v>300</v>
       </c>
       <c r="H253" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I253" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="2:9">
@@ -7840,10 +7841,10 @@
         <v>300</v>
       </c>
       <c r="H254" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I254" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="2:9">
@@ -7866,10 +7867,10 @@
         <v>300</v>
       </c>
       <c r="H255" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I255" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="2:9">
@@ -7892,10 +7893,10 @@
         <v>300</v>
       </c>
       <c r="H256" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I256" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="2:9">
@@ -7918,10 +7919,10 @@
         <v>300</v>
       </c>
       <c r="H257" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I257" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="2:9">
@@ -7944,10 +7945,10 @@
         <v>300</v>
       </c>
       <c r="H258" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I258" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="2:9">
@@ -7970,10 +7971,10 @@
         <v>300</v>
       </c>
       <c r="H259" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I259" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="2:9">
@@ -7996,10 +7997,10 @@
         <v>300</v>
       </c>
       <c r="H260" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I260" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="2:9">
@@ -8022,10 +8023,10 @@
         <v>300</v>
       </c>
       <c r="H261" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I261" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="2:9">
@@ -8048,10 +8049,10 @@
         <v>300</v>
       </c>
       <c r="H262" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I262" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="2:9">
@@ -8074,10 +8075,10 @@
         <v>300</v>
       </c>
       <c r="H263" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I263" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="2:9">
@@ -8100,10 +8101,10 @@
         <v>300</v>
       </c>
       <c r="H264" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I264" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="2:9">
@@ -8126,10 +8127,10 @@
         <v>300</v>
       </c>
       <c r="H265" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I265" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="2:9">
@@ -8152,10 +8153,10 @@
         <v>300</v>
       </c>
       <c r="H266" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I266" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="2:9">
@@ -8178,10 +8179,10 @@
         <v>300</v>
       </c>
       <c r="H267" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I267" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="2:9">
@@ -8204,10 +8205,10 @@
         <v>300</v>
       </c>
       <c r="H268" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I268" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="2:9">
@@ -8230,10 +8231,10 @@
         <v>300</v>
       </c>
       <c r="H269" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I269" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="2:9">
@@ -8256,10 +8257,10 @@
         <v>300</v>
       </c>
       <c r="H270" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I270" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="2:9">
@@ -8282,10 +8283,10 @@
         <v>300</v>
       </c>
       <c r="H271" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I271" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="2:9">
@@ -8308,10 +8309,10 @@
         <v>300</v>
       </c>
       <c r="H272" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I272" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273" spans="2:9">
@@ -8334,10 +8335,10 @@
         <v>300</v>
       </c>
       <c r="H273" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I273" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="2:9">
@@ -8360,10 +8361,10 @@
         <v>300</v>
       </c>
       <c r="H274" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I274" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="2:9">
@@ -8386,10 +8387,10 @@
         <v>300</v>
       </c>
       <c r="H275" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I275" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="2:9">
@@ -8412,10 +8413,10 @@
         <v>300</v>
       </c>
       <c r="H276" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I276" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="2:9">
@@ -8438,10 +8439,10 @@
         <v>300</v>
       </c>
       <c r="H277" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I277" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="2:9">
@@ -8464,10 +8465,10 @@
         <v>300</v>
       </c>
       <c r="H278" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I278" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="2:9">
@@ -8490,10 +8491,10 @@
         <v>300</v>
       </c>
       <c r="H279" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I279" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="2:9">
@@ -8516,10 +8517,10 @@
         <v>300</v>
       </c>
       <c r="H280" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I280" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="2:9">
@@ -8542,10 +8543,10 @@
         <v>300</v>
       </c>
       <c r="H281" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I281" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="2:9">
@@ -8568,10 +8569,10 @@
         <v>300</v>
       </c>
       <c r="H282" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I282" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="2:9">
@@ -8594,10 +8595,10 @@
         <v>300</v>
       </c>
       <c r="H283" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I283" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="2:9">
@@ -8620,10 +8621,10 @@
         <v>300</v>
       </c>
       <c r="H284" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I284" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="2:9">
@@ -8646,10 +8647,10 @@
         <v>300</v>
       </c>
       <c r="H285" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I285" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="2:9">
@@ -8672,10 +8673,10 @@
         <v>300</v>
       </c>
       <c r="H286" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I286" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="2:9">
@@ -8698,10 +8699,10 @@
         <v>300</v>
       </c>
       <c r="H287" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I287" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="2:9">
@@ -8724,10 +8725,10 @@
         <v>300</v>
       </c>
       <c r="H288" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I288" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="2:9">
@@ -8750,10 +8751,10 @@
         <v>300</v>
       </c>
       <c r="H289" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I289" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="2:9">
@@ -8776,10 +8777,10 @@
         <v>300</v>
       </c>
       <c r="H290" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I290" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="2:9">
@@ -8802,10 +8803,10 @@
         <v>300</v>
       </c>
       <c r="H291" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I291" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292" spans="2:9">
@@ -8828,10 +8829,10 @@
         <v>300</v>
       </c>
       <c r="H292" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I292" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="2:9">
@@ -8854,10 +8855,10 @@
         <v>300</v>
       </c>
       <c r="H293" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I293" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="2:9">
@@ -8880,10 +8881,10 @@
         <v>300</v>
       </c>
       <c r="H294" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I294" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295" spans="2:9">
@@ -8906,10 +8907,10 @@
         <v>300</v>
       </c>
       <c r="H295" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I295" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="2:9">
@@ -8932,10 +8933,10 @@
         <v>300</v>
       </c>
       <c r="H296" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I296" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="2:9">
@@ -8958,10 +8959,10 @@
         <v>300</v>
       </c>
       <c r="H297" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I297" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="2:9">
@@ -8984,10 +8985,10 @@
         <v>300</v>
       </c>
       <c r="H298" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I298" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="2:9">
@@ -9010,10 +9011,10 @@
         <v>300</v>
       </c>
       <c r="H299" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I299" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="2:9">
@@ -9036,10 +9037,10 @@
         <v>300</v>
       </c>
       <c r="H300" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I300" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="2:9">
@@ -9062,10 +9063,10 @@
         <v>300</v>
       </c>
       <c r="H301" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I301" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="2:9">
@@ -9088,10 +9089,10 @@
         <v>300</v>
       </c>
       <c r="H302" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I302" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="2:9">
@@ -9114,10 +9115,10 @@
         <v>300</v>
       </c>
       <c r="H303" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I303" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="2:9">
@@ -9140,10 +9141,10 @@
         <v>300</v>
       </c>
       <c r="H304" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I304" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="2:9">
@@ -9166,10 +9167,10 @@
         <v>300</v>
       </c>
       <c r="H305" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I305" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="2:9">
@@ -9192,10 +9193,10 @@
         <v>300</v>
       </c>
       <c r="H306" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I306" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="2:9">
@@ -9218,10 +9219,10 @@
         <v>300</v>
       </c>
       <c r="H307" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I307" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="2:9">
@@ -9244,10 +9245,10 @@
         <v>300</v>
       </c>
       <c r="H308" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I308" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="2:9">
@@ -9270,10 +9271,10 @@
         <v>300</v>
       </c>
       <c r="H309" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I309" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="2:9">
@@ -9296,10 +9297,10 @@
         <v>300</v>
       </c>
       <c r="H310" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I310" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="2:9">
@@ -9322,10 +9323,10 @@
         <v>300</v>
       </c>
       <c r="H311" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I311" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="2:9">
@@ -9348,10 +9349,10 @@
         <v>300</v>
       </c>
       <c r="H312" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I312" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="2:9">
@@ -9374,10 +9375,10 @@
         <v>300</v>
       </c>
       <c r="H313" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I313" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="2:9">
@@ -9400,10 +9401,10 @@
         <v>300</v>
       </c>
       <c r="H314" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I314" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="2:9">
@@ -9426,10 +9427,10 @@
         <v>300</v>
       </c>
       <c r="H315" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I315" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="2:9">
@@ -9452,10 +9453,10 @@
         <v>300</v>
       </c>
       <c r="H316" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I316" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="2:9">
@@ -9478,10 +9479,10 @@
         <v>300</v>
       </c>
       <c r="H317" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I317" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="2:9">
@@ -9504,10 +9505,10 @@
         <v>300</v>
       </c>
       <c r="H318" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I318" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="2:9">
@@ -9530,10 +9531,10 @@
         <v>300</v>
       </c>
       <c r="H319" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I319" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="2:9">
@@ -9556,10 +9557,10 @@
         <v>300</v>
       </c>
       <c r="H320" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I320" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="2:9">
@@ -9582,10 +9583,10 @@
         <v>300</v>
       </c>
       <c r="H321" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I321" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="2:9">
@@ -9608,10 +9609,10 @@
         <v>300</v>
       </c>
       <c r="H322" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I322" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="2:9">
@@ -9634,10 +9635,10 @@
         <v>300</v>
       </c>
       <c r="H323" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I323" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="2:9">
@@ -9660,10 +9661,10 @@
         <v>300</v>
       </c>
       <c r="H324" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I324" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="2:9">
@@ -9686,10 +9687,10 @@
         <v>300</v>
       </c>
       <c r="H325" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I325" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="2:9">
@@ -9712,10 +9713,10 @@
         <v>300</v>
       </c>
       <c r="H326" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I326" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="2:9">
@@ -9738,10 +9739,10 @@
         <v>300</v>
       </c>
       <c r="H327" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I327" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="2:9">
@@ -9764,10 +9765,10 @@
         <v>300</v>
       </c>
       <c r="H328" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I328" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="2:9">
@@ -9790,10 +9791,10 @@
         <v>300</v>
       </c>
       <c r="H329" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I329" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="2:9">
@@ -9816,10 +9817,10 @@
         <v>300</v>
       </c>
       <c r="H330" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I330" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="2:9">
@@ -9842,10 +9843,10 @@
         <v>300</v>
       </c>
       <c r="H331" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I331" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="2:9">
@@ -9868,10 +9869,10 @@
         <v>300</v>
       </c>
       <c r="H332" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I332" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="2:9">
@@ -9894,10 +9895,10 @@
         <v>300</v>
       </c>
       <c r="H333" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I333" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="2:9">
@@ -9920,10 +9921,10 @@
         <v>300</v>
       </c>
       <c r="H334" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I334" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="2:9">
@@ -9946,10 +9947,10 @@
         <v>300</v>
       </c>
       <c r="H335" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I335" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="2:9">
@@ -9972,10 +9973,10 @@
         <v>300</v>
       </c>
       <c r="H336" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I336" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="2:9">
@@ -9998,10 +9999,10 @@
         <v>300</v>
       </c>
       <c r="H337" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I337" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="2:9">
@@ -10024,10 +10025,10 @@
         <v>300</v>
       </c>
       <c r="H338" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I338" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="2:9">
@@ -10050,10 +10051,10 @@
         <v>300</v>
       </c>
       <c r="H339" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I339" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="2:9">
@@ -10076,10 +10077,10 @@
         <v>300</v>
       </c>
       <c r="H340" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I340" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="2:9">
@@ -10102,10 +10103,10 @@
         <v>300</v>
       </c>
       <c r="H341" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I341" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="2:9">
@@ -10128,10 +10129,10 @@
         <v>300</v>
       </c>
       <c r="H342" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I342" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="2:9">
@@ -10154,10 +10155,10 @@
         <v>300</v>
       </c>
       <c r="H343" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I343" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="2:9">
@@ -10180,10 +10181,10 @@
         <v>300</v>
       </c>
       <c r="H344" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I344" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="2:9">
@@ -10206,10 +10207,10 @@
         <v>300</v>
       </c>
       <c r="H345" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I345" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="2:9">
@@ -10232,10 +10233,10 @@
         <v>300</v>
       </c>
       <c r="H346" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I346" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="2:9">
@@ -10258,10 +10259,10 @@
         <v>300</v>
       </c>
       <c r="H347" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I347" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="2:9">
@@ -10284,10 +10285,10 @@
         <v>300</v>
       </c>
       <c r="H348" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I348" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="2:9">
@@ -10310,10 +10311,10 @@
         <v>300</v>
       </c>
       <c r="H349" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I349" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="2:9">
@@ -10336,10 +10337,10 @@
         <v>300</v>
       </c>
       <c r="H350" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I350" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="2:9">
@@ -10362,10 +10363,10 @@
         <v>300</v>
       </c>
       <c r="H351" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I351" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352" spans="2:9">
@@ -10388,10 +10389,10 @@
         <v>300</v>
       </c>
       <c r="H352" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I352" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="2:9">
@@ -10414,10 +10415,10 @@
         <v>300</v>
       </c>
       <c r="H353" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I353" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="2:9">
@@ -10440,10 +10441,10 @@
         <v>300</v>
       </c>
       <c r="H354" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I354" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="2:9">
@@ -10466,10 +10467,10 @@
         <v>300</v>
       </c>
       <c r="H355" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I355" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356" spans="2:9">
@@ -10492,10 +10493,10 @@
         <v>300</v>
       </c>
       <c r="H356" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I356" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="2:9">
@@ -10518,10 +10519,10 @@
         <v>300</v>
       </c>
       <c r="H357" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I357" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="2:9">
@@ -10544,10 +10545,10 @@
         <v>300</v>
       </c>
       <c r="H358" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I358" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="2:9">
@@ -10570,10 +10571,10 @@
         <v>300</v>
       </c>
       <c r="H359" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I359" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360" spans="2:9">
@@ -10596,10 +10597,10 @@
         <v>300</v>
       </c>
       <c r="H360" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I360" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361" spans="2:9">
@@ -10622,10 +10623,10 @@
         <v>300</v>
       </c>
       <c r="H361" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I361" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="2:9">
@@ -10648,10 +10649,10 @@
         <v>300</v>
       </c>
       <c r="H362" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I362" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="2:9">
@@ -10674,10 +10675,10 @@
         <v>300</v>
       </c>
       <c r="H363" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I363" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="2:9">
@@ -10700,10 +10701,10 @@
         <v>300</v>
       </c>
       <c r="H364" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I364" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="2:9">
@@ -10726,10 +10727,10 @@
         <v>300</v>
       </c>
       <c r="H365" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I365" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366" spans="2:9">
@@ -10752,10 +10753,10 @@
         <v>300</v>
       </c>
       <c r="H366" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I366" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="2:9">
@@ -10778,10 +10779,10 @@
         <v>300</v>
       </c>
       <c r="H367" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I367" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="2:9">
@@ -10804,10 +10805,10 @@
         <v>300</v>
       </c>
       <c r="H368" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I368" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369" spans="2:9">
@@ -10830,10 +10831,10 @@
         <v>300</v>
       </c>
       <c r="H369" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I369" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="2:9">
@@ -10856,10 +10857,10 @@
         <v>300</v>
       </c>
       <c r="H370" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I370" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="2:9">
@@ -10882,10 +10883,10 @@
         <v>300</v>
       </c>
       <c r="H371" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I371" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372" spans="2:9">
@@ -10908,10 +10909,10 @@
         <v>300</v>
       </c>
       <c r="H372" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I372" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="2:9">
@@ -10934,10 +10935,10 @@
         <v>300</v>
       </c>
       <c r="H373" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I373" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="2:9">
@@ -10960,10 +10961,10 @@
         <v>300</v>
       </c>
       <c r="H374" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I374" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375" spans="2:9">
@@ -10986,10 +10987,10 @@
         <v>300</v>
       </c>
       <c r="H375" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I375" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376" spans="2:9">
@@ -11012,10 +11013,10 @@
         <v>300</v>
       </c>
       <c r="H376" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I376" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="2:9">
@@ -11038,10 +11039,10 @@
         <v>300</v>
       </c>
       <c r="H377" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I377" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378" spans="2:9">
@@ -11064,10 +11065,10 @@
         <v>300</v>
       </c>
       <c r="H378" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I378" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="2:9">
@@ -11090,10 +11091,10 @@
         <v>300</v>
       </c>
       <c r="H379" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I379" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="2:9">
@@ -11116,10 +11117,10 @@
         <v>300</v>
       </c>
       <c r="H380" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I380" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381" spans="2:9">
@@ -11142,10 +11143,10 @@
         <v>300</v>
       </c>
       <c r="H381" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I381" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382" spans="2:9">
@@ -11168,10 +11169,10 @@
         <v>300</v>
       </c>
       <c r="H382" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I382" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="2:9">
@@ -11194,10 +11195,10 @@
         <v>300</v>
       </c>
       <c r="H383" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I383" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="2:9">
@@ -11220,10 +11221,10 @@
         <v>300</v>
       </c>
       <c r="H384" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I384" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385" spans="2:9">
@@ -11246,10 +11247,10 @@
         <v>300</v>
       </c>
       <c r="H385" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I385" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="2:9">
@@ -11272,10 +11273,10 @@
         <v>300</v>
       </c>
       <c r="H386" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I386" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="2:9">
@@ -11298,10 +11299,10 @@
         <v>300</v>
       </c>
       <c r="H387" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I387" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="2:9">
@@ -11324,10 +11325,10 @@
         <v>300</v>
       </c>
       <c r="H388" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I388" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="2:9">
@@ -11350,10 +11351,10 @@
         <v>300</v>
       </c>
       <c r="H389" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I389" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="2:9">
@@ -11376,10 +11377,10 @@
         <v>300</v>
       </c>
       <c r="H390" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I390" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="2:9">
@@ -11402,10 +11403,10 @@
         <v>300</v>
       </c>
       <c r="H391" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I391" s="7">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="2:9">
@@ -11428,10 +11429,10 @@
         <v>300</v>
       </c>
       <c r="H392" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I392" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="2:9">
@@ -11454,10 +11455,10 @@
         <v>300</v>
       </c>
       <c r="H393" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I393" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="2:9">
@@ -11480,10 +11481,10 @@
         <v>300</v>
       </c>
       <c r="H394" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I394" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="2:9">
@@ -11506,10 +11507,10 @@
         <v>300</v>
       </c>
       <c r="H395" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I395" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="2:9">
@@ -11532,10 +11533,10 @@
         <v>300</v>
       </c>
       <c r="H396" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I396" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="2:9">
@@ -11558,10 +11559,10 @@
         <v>300</v>
       </c>
       <c r="H397" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I397" s="7">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="2:9">
@@ -11584,10 +11585,10 @@
         <v>300</v>
       </c>
       <c r="H398" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I398" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="2:9">
@@ -11610,10 +11611,10 @@
         <v>300</v>
       </c>
       <c r="H399" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I399" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="2:9">
@@ -11636,10 +11637,10 @@
         <v>300</v>
       </c>
       <c r="H400" s="7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I400" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="2:9">
@@ -11662,10 +11663,10 @@
         <v>300</v>
       </c>
       <c r="H401" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I401" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="2:9">
@@ -11688,10 +11689,10 @@
         <v>300</v>
       </c>
       <c r="H402" s="7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I402" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="2:9">
@@ -11714,10 +11715,10 @@
         <v>300</v>
       </c>
       <c r="H403" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I403" s="7">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="2:9">
@@ -11740,10 +11741,10 @@
         <v>300</v>
       </c>
       <c r="H404" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I404" s="7">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="2:9">
@@ -11766,10 +11767,10 @@
         <v>300</v>
       </c>
       <c r="H405" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I405" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="2:9">
@@ -11792,10 +11793,10 @@
         <v>300</v>
       </c>
       <c r="H406" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I406" s="7">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="2:9">
@@ -11818,10 +11819,10 @@
         <v>300</v>
       </c>
       <c r="H407" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I407" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408" spans="2:9">
@@ -11844,10 +11845,10 @@
         <v>300</v>
       </c>
       <c r="H408" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I408" s="7">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="409" spans="2:9">
@@ -11870,10 +11871,10 @@
         <v>300</v>
       </c>
       <c r="H409" s="7">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I409" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="2:9">
@@ -11896,10 +11897,10 @@
         <v>300</v>
       </c>
       <c r="H410" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I410" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="2:9">
@@ -11922,10 +11923,10 @@
         <v>300</v>
       </c>
       <c r="H411" s="7">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I411" s="7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="2:9">
@@ -11947,11 +11948,11 @@
       <c r="G412">
         <v>300</v>
       </c>
-      <c r="H412">
-        <v>720</v>
-      </c>
-      <c r="I412">
-        <v>1080</v>
+      <c r="H412" s="7">
+        <v>30</v>
+      </c>
+      <c r="I412" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="413" spans="2:9">
@@ -11973,11 +11974,11 @@
       <c r="G413">
         <v>300</v>
       </c>
-      <c r="H413">
-        <v>480</v>
-      </c>
-      <c r="I413">
-        <v>840</v>
+      <c r="H413" s="7">
+        <v>30</v>
+      </c>
+      <c r="I413" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="414" spans="2:9">
@@ -11999,11 +12000,11 @@
       <c r="G414">
         <v>300</v>
       </c>
-      <c r="H414">
-        <v>120</v>
-      </c>
-      <c r="I414">
-        <v>600</v>
+      <c r="H414" s="7">
+        <v>30</v>
+      </c>
+      <c r="I414" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="415" spans="2:9">
@@ -12025,11 +12026,11 @@
       <c r="G415">
         <v>300</v>
       </c>
-      <c r="H415">
-        <v>60</v>
-      </c>
-      <c r="I415">
-        <v>360</v>
+      <c r="H415" s="7">
+        <v>30</v>
+      </c>
+      <c r="I415" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="416" spans="2:9">
@@ -12051,11 +12052,11 @@
       <c r="G416">
         <v>300</v>
       </c>
-      <c r="H416">
-        <v>48</v>
-      </c>
-      <c r="I416">
-        <v>300</v>
+      <c r="H416" s="7">
+        <v>30</v>
+      </c>
+      <c r="I416" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="417" spans="2:9">
@@ -12077,11 +12078,11 @@
       <c r="G417">
         <v>300</v>
       </c>
-      <c r="H417">
-        <v>36</v>
-      </c>
-      <c r="I417">
-        <v>240</v>
+      <c r="H417" s="7">
+        <v>30</v>
+      </c>
+      <c r="I417" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="418" spans="2:9">
@@ -12103,11 +12104,11 @@
       <c r="G418">
         <v>300</v>
       </c>
-      <c r="H418">
-        <v>36</v>
-      </c>
-      <c r="I418">
-        <v>300</v>
+      <c r="H418" s="7">
+        <v>30</v>
+      </c>
+      <c r="I418" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="419" spans="2:9">
@@ -12129,11 +12130,11 @@
       <c r="G419">
         <v>300</v>
       </c>
-      <c r="H419">
-        <v>120</v>
-      </c>
-      <c r="I419">
-        <v>360</v>
+      <c r="H419" s="7">
+        <v>30</v>
+      </c>
+      <c r="I419" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="420" spans="2:9">
@@ -12155,11 +12156,11 @@
       <c r="G420">
         <v>300</v>
       </c>
-      <c r="H420">
-        <v>180</v>
-      </c>
-      <c r="I420">
-        <v>420</v>
+      <c r="H420" s="7">
+        <v>30</v>
+      </c>
+      <c r="I420" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="421" spans="2:9">
@@ -12181,11 +12182,11 @@
       <c r="G421">
         <v>300</v>
       </c>
-      <c r="H421">
-        <v>216</v>
-      </c>
-      <c r="I421">
-        <v>480</v>
+      <c r="H421" s="7">
+        <v>30</v>
+      </c>
+      <c r="I421" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="422" spans="2:9">
@@ -12207,11 +12208,11 @@
       <c r="G422">
         <v>300</v>
       </c>
-      <c r="H422">
-        <v>240</v>
-      </c>
-      <c r="I422">
-        <v>540</v>
+      <c r="H422" s="7">
+        <v>30</v>
+      </c>
+      <c r="I422" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="423" spans="2:9">
@@ -12233,11 +12234,11 @@
       <c r="G423">
         <v>300</v>
       </c>
-      <c r="H423">
-        <v>240</v>
-      </c>
-      <c r="I423">
-        <v>600</v>
+      <c r="H423" s="7">
+        <v>30</v>
+      </c>
+      <c r="I423" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="424" spans="2:9">
@@ -12259,11 +12260,11 @@
       <c r="G424">
         <v>300</v>
       </c>
-      <c r="H424">
-        <v>240</v>
-      </c>
-      <c r="I424">
-        <v>660</v>
+      <c r="H424" s="7">
+        <v>30</v>
+      </c>
+      <c r="I424" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="425" spans="2:9">
@@ -12285,11 +12286,11 @@
       <c r="G425">
         <v>300</v>
       </c>
-      <c r="H425">
-        <v>360</v>
-      </c>
-      <c r="I425">
-        <v>720</v>
+      <c r="H425" s="7">
+        <v>30</v>
+      </c>
+      <c r="I425" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="426" spans="2:9">
@@ -12311,11 +12312,11 @@
       <c r="G426">
         <v>300</v>
       </c>
-      <c r="H426">
-        <v>420</v>
-      </c>
-      <c r="I426">
-        <v>780</v>
+      <c r="H426" s="7">
+        <v>30</v>
+      </c>
+      <c r="I426" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="427" spans="2:9">
@@ -12337,11 +12338,11 @@
       <c r="G427">
         <v>300</v>
       </c>
-      <c r="H427">
-        <v>480</v>
-      </c>
-      <c r="I427">
-        <v>840</v>
+      <c r="H427" s="7">
+        <v>30</v>
+      </c>
+      <c r="I427" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="428" spans="2:9">
@@ -12363,11 +12364,11 @@
       <c r="G428">
         <v>300</v>
       </c>
-      <c r="H428">
-        <v>600</v>
-      </c>
-      <c r="I428">
-        <v>900</v>
+      <c r="H428" s="7">
+        <v>30</v>
+      </c>
+      <c r="I428" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="429" spans="2:9">
@@ -12389,11 +12390,11 @@
       <c r="G429">
         <v>300</v>
       </c>
-      <c r="H429">
-        <v>660</v>
-      </c>
-      <c r="I429">
-        <v>960</v>
+      <c r="H429" s="7">
+        <v>30</v>
+      </c>
+      <c r="I429" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="430" spans="2:9">
@@ -12415,11 +12416,11 @@
       <c r="G430">
         <v>300</v>
       </c>
-      <c r="H430">
-        <v>720</v>
-      </c>
-      <c r="I430">
-        <v>1020</v>
+      <c r="H430" s="7">
+        <v>30</v>
+      </c>
+      <c r="I430" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="431" spans="2:9">
@@ -12441,11 +12442,11 @@
       <c r="G431">
         <v>300</v>
       </c>
-      <c r="H431">
-        <v>780</v>
-      </c>
-      <c r="I431">
-        <v>1080</v>
+      <c r="H431" s="7">
+        <v>30</v>
+      </c>
+      <c r="I431" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="432" spans="2:9">
@@ -12467,11 +12468,11 @@
       <c r="G432">
         <v>300</v>
       </c>
-      <c r="H432">
-        <v>840</v>
-      </c>
-      <c r="I432">
-        <v>1140</v>
+      <c r="H432" s="7">
+        <v>30</v>
+      </c>
+      <c r="I432" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="433" spans="2:9">
@@ -12493,11 +12494,11 @@
       <c r="G433">
         <v>300</v>
       </c>
-      <c r="H433">
-        <v>900</v>
-      </c>
-      <c r="I433">
-        <v>1200</v>
+      <c r="H433" s="7">
+        <v>30</v>
+      </c>
+      <c r="I433" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="434" spans="2:9">
@@ -12519,11 +12520,11 @@
       <c r="G434">
         <v>300</v>
       </c>
-      <c r="H434">
-        <v>900</v>
-      </c>
-      <c r="I434">
-        <v>1200</v>
+      <c r="H434" s="7">
+        <v>30</v>
+      </c>
+      <c r="I434" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="435" spans="2:9">
@@ -12545,11 +12546,11 @@
       <c r="G435">
         <v>300</v>
       </c>
-      <c r="H435">
-        <v>960</v>
-      </c>
-      <c r="I435">
-        <v>1200</v>
+      <c r="H435" s="7">
+        <v>30</v>
+      </c>
+      <c r="I435" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="436" spans="2:9">
@@ -12571,11 +12572,11 @@
       <c r="G436">
         <v>300</v>
       </c>
-      <c r="H436">
-        <v>720</v>
-      </c>
-      <c r="I436">
-        <v>1080</v>
+      <c r="H436" s="7">
+        <v>30</v>
+      </c>
+      <c r="I436" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="437" spans="2:9">
@@ -12597,11 +12598,11 @@
       <c r="G437">
         <v>300</v>
       </c>
-      <c r="H437">
-        <v>480</v>
-      </c>
-      <c r="I437">
-        <v>840</v>
+      <c r="H437" s="7">
+        <v>30</v>
+      </c>
+      <c r="I437" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="438" spans="2:9">
@@ -12623,11 +12624,11 @@
       <c r="G438">
         <v>300</v>
       </c>
-      <c r="H438">
-        <v>120</v>
-      </c>
-      <c r="I438">
-        <v>600</v>
+      <c r="H438" s="7">
+        <v>30</v>
+      </c>
+      <c r="I438" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="439" spans="2:9">
@@ -12649,11 +12650,11 @@
       <c r="G439">
         <v>300</v>
       </c>
-      <c r="H439">
-        <v>60</v>
-      </c>
-      <c r="I439">
-        <v>360</v>
+      <c r="H439" s="7">
+        <v>30</v>
+      </c>
+      <c r="I439" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="440" spans="2:9">
@@ -12675,11 +12676,11 @@
       <c r="G440">
         <v>300</v>
       </c>
-      <c r="H440">
-        <v>48</v>
-      </c>
-      <c r="I440">
-        <v>300</v>
+      <c r="H440" s="7">
+        <v>30</v>
+      </c>
+      <c r="I440" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="441" spans="2:9">
@@ -12701,11 +12702,11 @@
       <c r="G441">
         <v>300</v>
       </c>
-      <c r="H441">
-        <v>36</v>
-      </c>
-      <c r="I441">
-        <v>240</v>
+      <c r="H441" s="7">
+        <v>30</v>
+      </c>
+      <c r="I441" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="442" spans="2:9">
@@ -12727,11 +12728,11 @@
       <c r="G442">
         <v>300</v>
       </c>
-      <c r="H442">
-        <v>36</v>
-      </c>
-      <c r="I442">
-        <v>300</v>
+      <c r="H442" s="7">
+        <v>30</v>
+      </c>
+      <c r="I442" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="443" spans="2:9">
@@ -12753,11 +12754,11 @@
       <c r="G443">
         <v>300</v>
       </c>
-      <c r="H443">
-        <v>120</v>
-      </c>
-      <c r="I443">
-        <v>360</v>
+      <c r="H443" s="7">
+        <v>30</v>
+      </c>
+      <c r="I443" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="444" spans="2:9">
@@ -12779,11 +12780,11 @@
       <c r="G444">
         <v>300</v>
       </c>
-      <c r="H444">
-        <v>180</v>
-      </c>
-      <c r="I444">
-        <v>420</v>
+      <c r="H444" s="7">
+        <v>30</v>
+      </c>
+      <c r="I444" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="445" spans="2:9">
@@ -12805,11 +12806,11 @@
       <c r="G445">
         <v>300</v>
       </c>
-      <c r="H445">
-        <v>216</v>
-      </c>
-      <c r="I445">
-        <v>480</v>
+      <c r="H445" s="7">
+        <v>30</v>
+      </c>
+      <c r="I445" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="446" spans="2:9">
@@ -12831,11 +12832,11 @@
       <c r="G446">
         <v>300</v>
       </c>
-      <c r="H446">
-        <v>240</v>
-      </c>
-      <c r="I446">
-        <v>540</v>
+      <c r="H446" s="7">
+        <v>30</v>
+      </c>
+      <c r="I446" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="447" spans="2:9">
@@ -12857,11 +12858,11 @@
       <c r="G447">
         <v>300</v>
       </c>
-      <c r="H447">
-        <v>240</v>
-      </c>
-      <c r="I447">
-        <v>600</v>
+      <c r="H447" s="7">
+        <v>30</v>
+      </c>
+      <c r="I447" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="448" spans="2:9">
@@ -12883,11 +12884,11 @@
       <c r="G448">
         <v>300</v>
       </c>
-      <c r="H448">
-        <v>240</v>
-      </c>
-      <c r="I448">
-        <v>660</v>
+      <c r="H448" s="7">
+        <v>30</v>
+      </c>
+      <c r="I448" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="449" spans="2:9">
@@ -12909,11 +12910,11 @@
       <c r="G449">
         <v>300</v>
       </c>
-      <c r="H449">
-        <v>360</v>
-      </c>
-      <c r="I449">
-        <v>720</v>
+      <c r="H449" s="7">
+        <v>30</v>
+      </c>
+      <c r="I449" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="450" spans="2:9">
@@ -12935,11 +12936,11 @@
       <c r="G450">
         <v>300</v>
       </c>
-      <c r="H450">
-        <v>420</v>
-      </c>
-      <c r="I450">
-        <v>780</v>
+      <c r="H450" s="7">
+        <v>30</v>
+      </c>
+      <c r="I450" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="451" spans="2:9">
@@ -12961,11 +12962,11 @@
       <c r="G451">
         <v>300</v>
       </c>
-      <c r="H451">
-        <v>480</v>
-      </c>
-      <c r="I451">
-        <v>840</v>
+      <c r="H451" s="7">
+        <v>30</v>
+      </c>
+      <c r="I451" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="452" spans="2:9">
@@ -12987,11 +12988,11 @@
       <c r="G452">
         <v>300</v>
       </c>
-      <c r="H452">
-        <v>600</v>
-      </c>
-      <c r="I452">
-        <v>900</v>
+      <c r="H452" s="7">
+        <v>30</v>
+      </c>
+      <c r="I452" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="453" spans="2:9">
@@ -13013,11 +13014,11 @@
       <c r="G453">
         <v>300</v>
       </c>
-      <c r="H453">
-        <v>660</v>
-      </c>
-      <c r="I453">
-        <v>960</v>
+      <c r="H453" s="7">
+        <v>30</v>
+      </c>
+      <c r="I453" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="454" spans="2:9">
@@ -13039,11 +13040,11 @@
       <c r="G454">
         <v>300</v>
       </c>
-      <c r="H454">
-        <v>720</v>
-      </c>
-      <c r="I454">
-        <v>1020</v>
+      <c r="H454" s="7">
+        <v>30</v>
+      </c>
+      <c r="I454" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="455" spans="2:9">
@@ -13065,11 +13066,11 @@
       <c r="G455">
         <v>300</v>
       </c>
-      <c r="H455">
-        <v>780</v>
-      </c>
-      <c r="I455">
-        <v>1080</v>
+      <c r="H455" s="7">
+        <v>30</v>
+      </c>
+      <c r="I455" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="456" spans="2:9">
@@ -13091,11 +13092,11 @@
       <c r="G456">
         <v>300</v>
       </c>
-      <c r="H456">
-        <v>840</v>
-      </c>
-      <c r="I456">
-        <v>1140</v>
+      <c r="H456" s="7">
+        <v>30</v>
+      </c>
+      <c r="I456" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="457" spans="2:9">
@@ -13117,11 +13118,11 @@
       <c r="G457">
         <v>300</v>
       </c>
-      <c r="H457">
-        <v>900</v>
-      </c>
-      <c r="I457">
-        <v>1200</v>
+      <c r="H457" s="7">
+        <v>30</v>
+      </c>
+      <c r="I457" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="458" spans="2:9">
@@ -13143,11 +13144,11 @@
       <c r="G458">
         <v>300</v>
       </c>
-      <c r="H458">
-        <v>900</v>
-      </c>
-      <c r="I458">
-        <v>1200</v>
+      <c r="H458" s="7">
+        <v>30</v>
+      </c>
+      <c r="I458" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="459" spans="2:9">
@@ -13169,11 +13170,11 @@
       <c r="G459">
         <v>300</v>
       </c>
-      <c r="H459">
-        <v>960</v>
-      </c>
-      <c r="I459">
-        <v>1200</v>
+      <c r="H459" s="7">
+        <v>30</v>
+      </c>
+      <c r="I459" s="7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
